--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$55</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="90">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>硬件信息查看软件 Aida</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软碟通 UltraISO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,6 +346,37 @@
   </si>
   <si>
     <t>火绒安全软件（未来启用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone手机管理软件 爱思助手 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.i4.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影音播放器 Ace Stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ace-stream.en.softonic.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件信息查看软件 Aida64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,13 +546,20 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -537,9 +571,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6699"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FFCC6600"/>
-      <color rgb="FFFF6699"/>
       <color rgb="FF008080"/>
     </mruColors>
   </colors>
@@ -547,12 +581,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -594,7 +631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,7 +666,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -838,29 +875,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="111.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -872,12 +909,12 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>4</v>
@@ -894,9 +931,9 @@
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
@@ -913,9 +950,9 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
@@ -927,10 +964,10 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -947,7 +984,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -964,7 +1001,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,10 +1017,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,12 +1036,12 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
@@ -1021,7 +1058,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1037,188 +1074,186 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>4</v>
-      </c>
+      <c r="C13" s="27"/>
       <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="26" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>4</v>
@@ -1230,169 +1265,169 @@
       <c r="E21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="21" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
         <v>4</v>
       </c>
@@ -1402,12 +1437,12 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>4</v>
@@ -1415,90 +1450,90 @@
       <c r="C32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="26" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>4</v>
@@ -1515,26 +1550,28 @@
       </c>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>4</v>
@@ -1546,122 +1583,120 @@
       <c r="E39" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="F39" s="11"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="B42" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+      <c r="C42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
+      <c r="B44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="B45" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>4</v>
@@ -1678,140 +1713,176 @@
       </c>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="19" t="s">
+      <c r="B48" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="14"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G53">
-    <sortState ref="A2:G53">
+  <autoFilter ref="A1:G55">
+    <sortState ref="A2:G55">
       <sortCondition ref="A1:A53"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1820,28 +1891,30 @@
     <hyperlink ref="G7" r:id="rId2"/>
     <hyperlink ref="G8" r:id="rId3" location="product-desktop-release"/>
     <hyperlink ref="G10" r:id="rId4"/>
-    <hyperlink ref="G12" r:id="rId5"/>
-    <hyperlink ref="G13" r:id="rId6"/>
-    <hyperlink ref="G16" r:id="rId7"/>
-    <hyperlink ref="G18" r:id="rId8"/>
-    <hyperlink ref="G30" r:id="rId9"/>
-    <hyperlink ref="G19" r:id="rId10"/>
-    <hyperlink ref="G22" r:id="rId11"/>
-    <hyperlink ref="G28" r:id="rId12"/>
-    <hyperlink ref="G31" r:id="rId13"/>
-    <hyperlink ref="G34" r:id="rId14"/>
-    <hyperlink ref="G35" r:id="rId15"/>
-    <hyperlink ref="G44" r:id="rId16"/>
-    <hyperlink ref="G47" r:id="rId17"/>
-    <hyperlink ref="G51" r:id="rId18"/>
-    <hyperlink ref="G42" r:id="rId19" location="/download"/>
-    <hyperlink ref="G52" r:id="rId20"/>
-    <hyperlink ref="G43" r:id="rId21"/>
-    <hyperlink ref="G49" r:id="rId22"/>
-    <hyperlink ref="G23" r:id="rId23"/>
+    <hyperlink ref="G13" r:id="rId5"/>
+    <hyperlink ref="G14" r:id="rId6"/>
+    <hyperlink ref="G17" r:id="rId7"/>
+    <hyperlink ref="G19" r:id="rId8"/>
+    <hyperlink ref="G31" r:id="rId9"/>
+    <hyperlink ref="G20" r:id="rId10"/>
+    <hyperlink ref="G23" r:id="rId11"/>
+    <hyperlink ref="G29" r:id="rId12"/>
+    <hyperlink ref="G32" r:id="rId13"/>
+    <hyperlink ref="G35" r:id="rId14"/>
+    <hyperlink ref="G36" r:id="rId15"/>
+    <hyperlink ref="G45" r:id="rId16"/>
+    <hyperlink ref="G48" r:id="rId17"/>
+    <hyperlink ref="G53" r:id="rId18"/>
+    <hyperlink ref="G43" r:id="rId19" location="/download"/>
+    <hyperlink ref="G54" r:id="rId20"/>
+    <hyperlink ref="G44" r:id="rId21"/>
+    <hyperlink ref="G51" r:id="rId22"/>
+    <hyperlink ref="G24" r:id="rId23"/>
+    <hyperlink ref="G11" r:id="rId24"/>
+    <hyperlink ref="G50" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -1851,7 +1924,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1864,7 +1937,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="94">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,11 +372,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://ace-stream.en.softonic.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>硬件信息查看软件 Aida64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wiki.acestream.media/Download#Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐播投屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hpplay.com.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,14 +568,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -589,7 +598,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -631,7 +640,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,7 +675,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,21 +884,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="111.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -912,7 +921,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
@@ -920,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -931,7 +940,7 @@
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
@@ -950,7 +959,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
@@ -967,7 +976,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -984,7 +993,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -1001,7 +1010,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
@@ -1058,7 +1067,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1086,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>82</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -1109,7 +1118,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
@@ -1126,7 +1135,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1173,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>9</v>
       </c>
@@ -1183,7 +1192,7 @@
       </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
@@ -1217,7 +1226,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
         <v>44</v>
       </c>
@@ -1234,7 +1243,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1251,7 +1260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
@@ -1270,7 +1279,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1287,7 +1296,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>81</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
@@ -1340,7 +1349,7 @@
       </c>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>40</v>
       </c>
@@ -1355,7 +1364,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>51</v>
       </c>
@@ -1372,81 +1381,79 @@
       </c>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="B29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="22" t="s">
+      <c r="B30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
         <v>4</v>
       </c>
@@ -1456,103 +1463,103 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="26" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="19" t="s">
+      <c r="B37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>4</v>
@@ -1569,26 +1576,28 @@
       </c>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>4</v>
@@ -1600,122 +1609,120 @@
       <c r="E40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="F40" s="11"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="B43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="23" t="s">
+      <c r="B44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="20" t="s">
+      <c r="B45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="19" t="s">
+      <c r="B46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>4</v>
@@ -1732,157 +1739,176 @@
       </c>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="19" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="B50" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B51" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="23" t="s">
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="B53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="19" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="22" t="s">
+      <c r="B55" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="14"/>
+      <c r="B56" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55">
-    <sortState ref="A2:G55">
-      <sortCondition ref="A1:A53"/>
+    <sortState ref="A2:G56">
+      <sortCondition ref="A1:A55"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1895,26 +1921,27 @@
     <hyperlink ref="G14" r:id="rId6"/>
     <hyperlink ref="G17" r:id="rId7"/>
     <hyperlink ref="G19" r:id="rId8"/>
-    <hyperlink ref="G31" r:id="rId9"/>
+    <hyperlink ref="G32" r:id="rId9"/>
     <hyperlink ref="G20" r:id="rId10"/>
     <hyperlink ref="G23" r:id="rId11"/>
-    <hyperlink ref="G29" r:id="rId12"/>
-    <hyperlink ref="G32" r:id="rId13"/>
-    <hyperlink ref="G35" r:id="rId14"/>
-    <hyperlink ref="G36" r:id="rId15"/>
-    <hyperlink ref="G45" r:id="rId16"/>
-    <hyperlink ref="G48" r:id="rId17"/>
-    <hyperlink ref="G53" r:id="rId18"/>
-    <hyperlink ref="G43" r:id="rId19" location="/download"/>
-    <hyperlink ref="G54" r:id="rId20"/>
-    <hyperlink ref="G44" r:id="rId21"/>
-    <hyperlink ref="G51" r:id="rId22"/>
+    <hyperlink ref="G30" r:id="rId12"/>
+    <hyperlink ref="G33" r:id="rId13"/>
+    <hyperlink ref="G36" r:id="rId14"/>
+    <hyperlink ref="G37" r:id="rId15"/>
+    <hyperlink ref="G46" r:id="rId16"/>
+    <hyperlink ref="G49" r:id="rId17"/>
+    <hyperlink ref="G54" r:id="rId18"/>
+    <hyperlink ref="G44" r:id="rId19" location="/download"/>
+    <hyperlink ref="G55" r:id="rId20"/>
+    <hyperlink ref="G45" r:id="rId21"/>
+    <hyperlink ref="G52" r:id="rId22"/>
     <hyperlink ref="G24" r:id="rId23"/>
     <hyperlink ref="G11" r:id="rId24"/>
-    <hyperlink ref="G50" r:id="rId25"/>
+    <hyperlink ref="G51" r:id="rId25" location="Windows"/>
+    <hyperlink ref="G28" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -1924,7 +1951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1937,7 +1964,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$58</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="98">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手心输入法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软碟通 UltraISO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,182 +213,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>软媒魔方系列软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工具 Eclipse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Jdk 1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Jdk 1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想一体机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华硕笔记本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分浏览器 Cent Browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sd.360.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.cn/chrome/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mozilla.org/en-US/firefox/all/#product-desktop-release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git-scm.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.oracle.com/cn/java/technologies/javase/javase-jdk8-downloads.html#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.python.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.centbrowser.cn/history.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.glarysoft.com/disk-speedup/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.glarysoft.com/quick-startup/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://page.dingtalk.com/wow/dingtalk/act/download?spm=a213l2.13146415.4929779444.72.7f1521c96emo7i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://adl.netease.com/d/g/hy/c/gwpcb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nper.cmbc.com.cn/pweb/static/login.html#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cn.ultraiso.net/xiazai.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.theworld.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.xinshuru.com/index.html?p=win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://notepad-plus-plus.org/downloads/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xunlei.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.wisecleaner.com.cn/download.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://music.163.com/#/download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cmbchina.com/pbankwebNew/downloadPage.aspx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pc.weixin.qq.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://daumpotplayer.com/download/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.huorong.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火绒安全软件（未来启用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone手机管理软件 爱思助手 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.i4.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影音播放器 Ace Stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件信息查看软件 Aida64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wiki.acestream.media/Download#Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐播投屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hpplay.com.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手心输入法（备选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡饭输入法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>梯子工具 Shadowsocks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软媒魔方系列软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发工具 Eclipse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java Jdk 1.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java Jdk 1.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联想一体机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华硕笔记本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分浏览器 Cent Browser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sd.360.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.google.cn/chrome/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.mozilla.org/en-US/firefox/all/#product-desktop-release</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://git-scm.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.oracle.com/cn/java/technologies/javase/javase-jdk8-downloads.html#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.python.org/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.centbrowser.cn/history.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.glarysoft.com/disk-speedup/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.glarysoft.com/quick-startup/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://page.dingtalk.com/wow/dingtalk/act/download?spm=a213l2.13146415.4929779444.72.7f1521c96emo7i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://adl.netease.com/d/g/hy/c/gwpcb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nper.cmbc.com.cn/pweb/static/login.html#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cn.ultraiso.net/xiazai.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.theworld.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.xinshuru.com/index.html?p=win</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://notepad-plus-plus.org/downloads/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.xunlei.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.wisecleaner.com.cn/download.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://music.163.com/#/download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cmbchina.com/pbankwebNew/downloadPage.aspx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pc.weixin.qq.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://daumpotplayer.com/download/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.huorong.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火绒安全软件（未来启用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">iPhone手机管理软件 爱思助手 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.i4.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影音播放器 Ace Stream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件信息查看软件 Aida64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wiki.acestream.media/Download#Windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐播投屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hpplay.com.cn/</t>
+    <t>梯子工具 v2rayN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山软件管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://input.kfsafe.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -900,13 +916,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -918,18 +934,18 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -942,7 +958,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
@@ -961,7 +977,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
@@ -973,7 +989,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1026,7 +1042,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1045,12 +1061,12 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
@@ -1083,29 +1099,29 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
@@ -1120,7 +1136,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>4</v>
@@ -1132,7 +1148,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1151,7 +1167,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1194,7 +1210,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
@@ -1206,7 +1222,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1228,7 +1244,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
@@ -1240,12 +1256,12 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -1257,12 +1273,12 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>4</v>
@@ -1281,7 +1297,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>4</v>
@@ -1298,7 +1314,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
@@ -1310,12 +1326,12 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16" t="s">
@@ -1327,12 +1343,12 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>4</v>
@@ -1350,434 +1366,428 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="A26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="14"/>
+      <c r="A27" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
+      <c r="B31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="19" t="s">
-        <v>66</v>
+      <c r="A32" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="19" t="s">
-        <v>70</v>
-      </c>
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>4</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="12"/>
+      <c r="D34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="19" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="13" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="12"/>
+      <c r="B41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="23" t="s">
+      <c r="B46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="D49" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>4</v>
@@ -1789,48 +1799,50 @@
       <c r="E50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="23" t="s">
-        <v>89</v>
-      </c>
+      <c r="A51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="23" t="s">
-        <v>79</v>
+      <c r="A52" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>4</v>
@@ -1842,68 +1854,121 @@
       <c r="E53" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="F53" s="11"/>
       <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="19" t="s">
+      <c r="A54" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="14"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G55">
-    <sortState ref="A2:G56">
-      <sortCondition ref="A1:A55"/>
+  <autoFilter ref="A1:G58">
+    <sortState ref="A2:G59">
+      <sortCondition ref="A1:A58"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1921,27 +1986,28 @@
     <hyperlink ref="G14" r:id="rId6"/>
     <hyperlink ref="G17" r:id="rId7"/>
     <hyperlink ref="G19" r:id="rId8"/>
-    <hyperlink ref="G32" r:id="rId9"/>
+    <hyperlink ref="G34" r:id="rId9"/>
     <hyperlink ref="G20" r:id="rId10"/>
     <hyperlink ref="G23" r:id="rId11"/>
-    <hyperlink ref="G30" r:id="rId12"/>
-    <hyperlink ref="G33" r:id="rId13"/>
-    <hyperlink ref="G36" r:id="rId14"/>
-    <hyperlink ref="G37" r:id="rId15"/>
-    <hyperlink ref="G46" r:id="rId16"/>
-    <hyperlink ref="G49" r:id="rId17"/>
-    <hyperlink ref="G54" r:id="rId18"/>
-    <hyperlink ref="G44" r:id="rId19" location="/download"/>
-    <hyperlink ref="G55" r:id="rId20"/>
-    <hyperlink ref="G45" r:id="rId21"/>
-    <hyperlink ref="G52" r:id="rId22"/>
+    <hyperlink ref="G32" r:id="rId12"/>
+    <hyperlink ref="G35" r:id="rId13"/>
+    <hyperlink ref="G38" r:id="rId14"/>
+    <hyperlink ref="G39" r:id="rId15"/>
+    <hyperlink ref="G49" r:id="rId16"/>
+    <hyperlink ref="G52" r:id="rId17"/>
+    <hyperlink ref="G57" r:id="rId18"/>
+    <hyperlink ref="G47" r:id="rId19" location="/download"/>
+    <hyperlink ref="G58" r:id="rId20"/>
+    <hyperlink ref="G48" r:id="rId21"/>
+    <hyperlink ref="G55" r:id="rId22"/>
     <hyperlink ref="G24" r:id="rId23"/>
     <hyperlink ref="G11" r:id="rId24"/>
-    <hyperlink ref="G51" r:id="rId25" location="Windows"/>
-    <hyperlink ref="G28" r:id="rId26"/>
+    <hyperlink ref="G54" r:id="rId25" location="Windows"/>
+    <hyperlink ref="G30" r:id="rId26"/>
+    <hyperlink ref="G28" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$60</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="101">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,18 @@
   </si>
   <si>
     <t>https://input.kfsafe.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机 VMware Workstation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机 VirtualBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vmware.com/go/getworkstation-win</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -1825,150 +1837,184 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="9" t="s">
+      <c r="B55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10" t="s">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="23" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="9" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="23" t="s">
+      <c r="B57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="11" t="s">
+      <c r="B58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="19" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="15" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="22" t="s">
+      <c r="B60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="13" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="14"/>
+      <c r="B61" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G58">
-    <sortState ref="A2:G59">
-      <sortCondition ref="A1:A58"/>
+  <autoFilter ref="A1:G60">
+    <sortState ref="A2:G61">
+      <sortCondition ref="A1:A60"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1994,20 +2040,21 @@
     <hyperlink ref="G38" r:id="rId14"/>
     <hyperlink ref="G39" r:id="rId15"/>
     <hyperlink ref="G49" r:id="rId16"/>
-    <hyperlink ref="G52" r:id="rId17"/>
-    <hyperlink ref="G57" r:id="rId18"/>
+    <hyperlink ref="G54" r:id="rId17"/>
+    <hyperlink ref="G59" r:id="rId18"/>
     <hyperlink ref="G47" r:id="rId19" location="/download"/>
-    <hyperlink ref="G58" r:id="rId20"/>
+    <hyperlink ref="G60" r:id="rId20"/>
     <hyperlink ref="G48" r:id="rId21"/>
-    <hyperlink ref="G55" r:id="rId22"/>
+    <hyperlink ref="G57" r:id="rId22"/>
     <hyperlink ref="G24" r:id="rId23"/>
     <hyperlink ref="G11" r:id="rId24"/>
-    <hyperlink ref="G54" r:id="rId25" location="Windows"/>
+    <hyperlink ref="G56" r:id="rId25" location="Windows"/>
     <hyperlink ref="G30" r:id="rId26"/>
     <hyperlink ref="G28" r:id="rId27"/>
+    <hyperlink ref="G53" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://sd.360.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.google.cn/chrome/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,6 +417,10 @@
   </si>
   <si>
     <t>https://www.vmware.com/go/getworkstation-win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://down.360safe.com/360sd/360sd_plus_5.0.0.8180.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -1001,7 +1001,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="24" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1054,7 +1054,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1073,7 +1073,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1111,24 +1111,24 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1160,7 +1160,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1179,7 +1179,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1234,7 +1234,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1268,7 +1268,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1285,7 +1285,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1338,12 +1338,12 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16" t="s">
@@ -1355,7 +1355,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1379,7 +1379,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
@@ -1411,7 +1411,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11" t="s">
@@ -1423,7 +1423,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1445,19 +1445,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -1493,7 +1493,7 @@
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1525,7 +1525,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1544,7 +1544,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -1597,12 +1597,12 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
@@ -1614,7 +1614,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1672,7 +1672,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>4</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>4</v>
@@ -1756,7 +1756,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -1775,7 +1775,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -1794,7 +1794,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -1837,7 +1837,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>4</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>4</v>
@@ -1866,7 +1866,7 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -1874,7 +1874,7 @@
         <v>8</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
@@ -1883,7 +1883,7 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -1905,19 +1905,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -1936,12 +1936,12 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>4</v>
@@ -1972,7 +1972,7 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -1989,7 +1989,7 @@
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="100">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>迅雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百度云管家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.xunlei.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.wisecleaner.com.cn/download.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,43 +376,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>卡饭输入法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯子工具 Shadowsocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯子工具 v2rayN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山软件管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://input.kfsafe.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机 VMware Workstation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机 VirtualBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vmware.com/go/getworkstation-win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://down.360safe.com/360sd/360sd_plus_5.0.0.8180.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅雷（优化精简版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>手心输入法（备选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡饭输入法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梯子工具 Shadowsocks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梯子工具 v2rayN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金山软件管家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://input.kfsafe.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机 VMware Workstation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机 VirtualBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.vmware.com/go/getworkstation-win</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://down.360safe.com/360sd/360sd_plus_5.0.0.8180.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,13 +924,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -946,18 +942,18 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -970,7 +966,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
@@ -989,7 +985,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
@@ -1001,7 +997,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1023,7 +1019,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
@@ -1054,7 +1050,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1073,12 +1069,12 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
@@ -1097,7 +1093,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -1111,29 +1107,29 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
@@ -1148,7 +1144,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>4</v>
@@ -1160,12 +1156,12 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>4</v>
@@ -1179,7 +1175,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1203,7 +1199,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>4</v>
@@ -1222,7 +1218,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
@@ -1234,12 +1230,12 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>4</v>
@@ -1256,7 +1252,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
@@ -1268,12 +1264,12 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -1285,12 +1281,12 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>4</v>
@@ -1309,7 +1305,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>4</v>
@@ -1326,7 +1322,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
@@ -1338,12 +1334,12 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16" t="s">
@@ -1355,12 +1351,12 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>4</v>
@@ -1379,7 +1375,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
@@ -1396,7 +1392,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>4</v>
@@ -1411,7 +1407,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11" t="s">
@@ -1423,12 +1419,12 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>4</v>
@@ -1445,24 +1441,24 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>4</v>
@@ -1479,7 +1475,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>4</v>
@@ -1493,12 +1489,12 @@
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
@@ -1513,7 +1509,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
@@ -1525,12 +1521,12 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>4</v>
@@ -1544,12 +1540,12 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>4</v>
@@ -1568,7 +1564,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
@@ -1585,7 +1581,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -1597,12 +1593,12 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
@@ -1614,12 +1610,12 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>4</v>
@@ -1638,7 +1634,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>4</v>
@@ -1657,7 +1653,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>4</v>
@@ -1672,7 +1668,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>4</v>
@@ -1691,7 +1687,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>4</v>
@@ -1710,7 +1706,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
@@ -1725,7 +1721,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>4</v>
@@ -1744,7 +1740,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>4</v>
@@ -1756,12 +1752,12 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>4</v>
@@ -1775,12 +1771,12 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>4</v>
@@ -1794,12 +1790,12 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>4</v>
@@ -1818,7 +1814,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>4</v>
@@ -1837,7 +1833,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>4</v>
@@ -1854,7 +1850,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>4</v>
@@ -1866,29 +1862,27 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="19" t="s">
-        <v>71</v>
-      </c>
+      <c r="G54" s="19"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>4</v>
@@ -1905,24 +1899,24 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>4</v>
@@ -1936,12 +1930,12 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>4</v>
@@ -1960,7 +1954,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
@@ -1972,12 +1966,12 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>4</v>
@@ -1989,12 +1983,12 @@
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>4</v>
@@ -2040,21 +2034,20 @@
     <hyperlink ref="G38" r:id="rId14"/>
     <hyperlink ref="G39" r:id="rId15"/>
     <hyperlink ref="G49" r:id="rId16"/>
-    <hyperlink ref="G54" r:id="rId17"/>
-    <hyperlink ref="G59" r:id="rId18"/>
-    <hyperlink ref="G47" r:id="rId19" location="/download"/>
-    <hyperlink ref="G60" r:id="rId20"/>
-    <hyperlink ref="G48" r:id="rId21"/>
-    <hyperlink ref="G57" r:id="rId22"/>
-    <hyperlink ref="G24" r:id="rId23"/>
-    <hyperlink ref="G11" r:id="rId24"/>
-    <hyperlink ref="G56" r:id="rId25" location="Windows"/>
-    <hyperlink ref="G30" r:id="rId26"/>
-    <hyperlink ref="G28" r:id="rId27"/>
-    <hyperlink ref="G53" r:id="rId28"/>
+    <hyperlink ref="G59" r:id="rId17"/>
+    <hyperlink ref="G47" r:id="rId18" location="/download"/>
+    <hyperlink ref="G60" r:id="rId19"/>
+    <hyperlink ref="G48" r:id="rId20"/>
+    <hyperlink ref="G57" r:id="rId21"/>
+    <hyperlink ref="G24" r:id="rId22"/>
+    <hyperlink ref="G11" r:id="rId23"/>
+    <hyperlink ref="G56" r:id="rId24" location="Windows"/>
+    <hyperlink ref="G30" r:id="rId25"/>
+    <hyperlink ref="G28" r:id="rId26"/>
+    <hyperlink ref="G53" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$61</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="101">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,10 @@
   </si>
   <si>
     <t>手心输入法（备选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为工作需要的软件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -587,6 +591,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -908,7 +913,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -919,10 +925,11 @@
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="111.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -941,11 +948,15 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
@@ -962,9 +973,10 @@
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -981,9 +993,10 @@
       <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>39</v>
       </c>
@@ -996,11 +1009,12 @@
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -1015,9 +1029,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1032,9 +1047,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1049,11 +1065,12 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1068,11 +1085,12 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
@@ -1089,9 +1107,10 @@
       <c r="F9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1106,11 +1125,12 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>77</v>
       </c>
@@ -1123,11 +1143,12 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -1140,9 +1161,12 @@
         <v>4</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1155,11 +1179,12 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1174,11 +1199,12 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1195,9 +1221,10 @@
       <c r="F15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
@@ -1214,9 +1241,10 @@
       <c r="F16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -1229,11 +1257,12 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
@@ -1248,9 +1277,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
         <v>42</v>
       </c>
@@ -1263,11 +1293,12 @@
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1280,11 +1311,14 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
@@ -1301,9 +1335,10 @@
       <c r="F21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>29</v>
       </c>
@@ -1318,9 +1353,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1333,11 +1369,12 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>76</v>
       </c>
@@ -1350,11 +1387,12 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>36</v>
       </c>
@@ -1371,9 +1409,12 @@
       <c r="F25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>92</v>
       </c>
@@ -1388,9 +1429,10 @@
       <c r="F26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>38</v>
       </c>
@@ -1403,9 +1445,10 @@
         <v>4</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>89</v>
       </c>
@@ -1418,11 +1461,12 @@
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="11"/>
+      <c r="H28" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>48</v>
       </c>
@@ -1437,9 +1481,10 @@
       <c r="F29" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>87</v>
       </c>
@@ -1452,11 +1497,12 @@
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="12"/>
+      <c r="H30" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>10</v>
       </c>
@@ -1471,9 +1517,10 @@
         <v>4</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
         <v>45</v>
       </c>
@@ -1488,11 +1535,12 @@
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="15"/>
+      <c r="H32" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -1505,9 +1553,10 @@
         <v>4</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>43</v>
       </c>
@@ -1520,11 +1569,12 @@
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="11"/>
+      <c r="H34" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>20</v>
       </c>
@@ -1539,11 +1589,12 @@
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="11"/>
+      <c r="H35" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>47</v>
       </c>
@@ -1560,9 +1611,10 @@
       <c r="F36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,9 +1629,10 @@
       <c r="F37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -1592,11 +1645,12 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>99</v>
       </c>
@@ -1609,11 +1663,12 @@
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="11"/>
+      <c r="H39" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
         <v>34</v>
       </c>
@@ -1630,9 +1685,12 @@
       <c r="F40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G40" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
@@ -1649,9 +1707,12 @@
       <c r="F41" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G41" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>31</v>
       </c>
@@ -1664,9 +1725,10 @@
         <v>4</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>90</v>
       </c>
@@ -1683,9 +1745,10 @@
       <c r="F43" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
         <v>91</v>
       </c>
@@ -1702,9 +1765,10 @@
       <c r="F44" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -1717,9 +1781,12 @@
         <v>4</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>14</v>
       </c>
@@ -1736,9 +1803,10 @@
       <c r="F46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>37</v>
       </c>
@@ -1751,11 +1819,12 @@
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
@@ -1770,11 +1839,12 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="5"/>
+      <c r="H48" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
         <v>18</v>
       </c>
@@ -1789,11 +1859,12 @@
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="11"/>
+      <c r="H49" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
         <v>21</v>
       </c>
@@ -1810,9 +1881,10 @@
       <c r="F50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G50" s="11"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
         <v>19</v>
       </c>
@@ -1829,9 +1901,10 @@
       <c r="F51" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G51" s="11"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
         <v>95</v>
       </c>
@@ -1846,9 +1919,10 @@
       <c r="F52" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G52" s="11"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
         <v>94</v>
       </c>
@@ -1861,11 +1935,12 @@
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="11"/>
+      <c r="H53" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
         <v>98</v>
       </c>
@@ -1878,9 +1953,10 @@
         <v>4</v>
       </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G54" s="11"/>
+      <c r="H54" s="19"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
         <v>12</v>
       </c>
@@ -1895,9 +1971,10 @@
         <v>4</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G55" s="11"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>82</v>
       </c>
@@ -1910,11 +1987,12 @@
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="10"/>
+      <c r="H56" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>11</v>
       </c>
@@ -1929,11 +2007,12 @@
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="23" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>83</v>
       </c>
@@ -1950,9 +2029,10 @@
       <c r="F58" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G58" s="11"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="s">
         <v>41</v>
       </c>
@@ -1965,11 +2045,12 @@
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="11"/>
+      <c r="H59" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="15" t="s">
         <v>46</v>
       </c>
@@ -1982,11 +2063,12 @@
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="22" t="s">
+      <c r="G60" s="15"/>
+      <c r="H60" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="13" t="s">
         <v>33</v>
       </c>
@@ -2003,10 +2085,18 @@
       <c r="F61" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="14"/>
+      <c r="G61" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G60">
+  <autoFilter ref="A1:H61">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A2:G61">
       <sortCondition ref="A1:A60"/>
     </sortState>
@@ -2018,33 +2108,33 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G7" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3" location="product-desktop-release"/>
-    <hyperlink ref="G10" r:id="rId4"/>
-    <hyperlink ref="G13" r:id="rId5"/>
-    <hyperlink ref="G14" r:id="rId6"/>
-    <hyperlink ref="G17" r:id="rId7"/>
-    <hyperlink ref="G19" r:id="rId8"/>
-    <hyperlink ref="G34" r:id="rId9"/>
-    <hyperlink ref="G20" r:id="rId10"/>
-    <hyperlink ref="G23" r:id="rId11"/>
-    <hyperlink ref="G32" r:id="rId12"/>
-    <hyperlink ref="G35" r:id="rId13"/>
-    <hyperlink ref="G38" r:id="rId14"/>
-    <hyperlink ref="G39" r:id="rId15"/>
-    <hyperlink ref="G49" r:id="rId16"/>
-    <hyperlink ref="G59" r:id="rId17"/>
-    <hyperlink ref="G47" r:id="rId18" location="/download"/>
-    <hyperlink ref="G60" r:id="rId19"/>
-    <hyperlink ref="G48" r:id="rId20"/>
-    <hyperlink ref="G57" r:id="rId21"/>
-    <hyperlink ref="G24" r:id="rId22"/>
-    <hyperlink ref="G11" r:id="rId23"/>
-    <hyperlink ref="G56" r:id="rId24" location="Windows"/>
-    <hyperlink ref="G30" r:id="rId25"/>
-    <hyperlink ref="G28" r:id="rId26"/>
-    <hyperlink ref="G53" r:id="rId27"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId3" location="product-desktop-release"/>
+    <hyperlink ref="H10" r:id="rId4"/>
+    <hyperlink ref="H13" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H17" r:id="rId7"/>
+    <hyperlink ref="H19" r:id="rId8"/>
+    <hyperlink ref="H34" r:id="rId9"/>
+    <hyperlink ref="H20" r:id="rId10"/>
+    <hyperlink ref="H23" r:id="rId11"/>
+    <hyperlink ref="H32" r:id="rId12"/>
+    <hyperlink ref="H35" r:id="rId13"/>
+    <hyperlink ref="H38" r:id="rId14"/>
+    <hyperlink ref="H39" r:id="rId15"/>
+    <hyperlink ref="H49" r:id="rId16"/>
+    <hyperlink ref="H59" r:id="rId17"/>
+    <hyperlink ref="H47" r:id="rId18" location="/download"/>
+    <hyperlink ref="H60" r:id="rId19"/>
+    <hyperlink ref="H48" r:id="rId20"/>
+    <hyperlink ref="H57" r:id="rId21"/>
+    <hyperlink ref="H24" r:id="rId22"/>
+    <hyperlink ref="H11" r:id="rId23"/>
+    <hyperlink ref="H56" r:id="rId24" location="Windows"/>
+    <hyperlink ref="H30" r:id="rId25"/>
+    <hyperlink ref="H28" r:id="rId26"/>
+    <hyperlink ref="H53" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$62</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="102">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Adobe Flash Player去除区域限制版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Firefox浏览器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,6 +417,14 @@
   </si>
   <si>
     <t>是否为工作需要的软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">恢复Win 7样式开始菜单软件 StartIsBack+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adobe Flash Player去除Helper特别版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,14 +917,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
@@ -931,13 +934,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -949,22 +952,22 @@
         <v>0</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -978,7 +981,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
@@ -998,7 +1001,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
@@ -1011,12 +1014,12 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
@@ -1034,7 +1037,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
@@ -1052,7 +1055,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -1067,12 +1070,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -1087,12 +1090,12 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
@@ -1112,7 +1115,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -1127,30 +1130,30 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
@@ -1162,13 +1165,13 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>4</v>
@@ -1181,12 +1184,12 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>4</v>
@@ -1201,7 +1204,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1226,7 +1229,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>4</v>
@@ -1244,9 +1247,9 @@
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
@@ -1259,12 +1262,12 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>4</v>
@@ -1282,7 +1285,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
@@ -1295,12 +1298,12 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -1315,12 +1318,12 @@
         <v>4</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>4</v>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>4</v>
@@ -1356,9 +1359,9 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
@@ -1371,216 +1374,212 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-    </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>4</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
         <v>4</v>
       </c>
@@ -1591,12 +1590,12 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>4</v>
@@ -1604,95 +1603,93 @@
       <c r="C36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="D36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="19" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
+      <c r="A37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>4</v>
@@ -1708,49 +1705,51 @@
         <v>4</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>4</v>
@@ -1769,104 +1768,104 @@
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="4"/>
+      <c r="A45" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="C47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="23" t="s">
-        <v>71</v>
-      </c>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="20" t="s">
-        <v>73</v>
+      <c r="A48" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="19" t="s">
-        <v>69</v>
+      <c r="A49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>4</v>
@@ -1874,19 +1873,19 @@
       <c r="C50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="D50" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
+      <c r="H50" s="19" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>4</v>
@@ -1904,14 +1903,16 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="11"/>
+      <c r="C52" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
         <v>4</v>
@@ -1922,7 +1923,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
         <v>94</v>
       </c>
@@ -1930,175 +1931,188 @@
         <v>4</v>
       </c>
       <c r="C53" s="11"/>
-      <c r="D53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G53" s="11"/>
-      <c r="H53" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="D54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="19"/>
+      <c r="H54" s="19" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="23" t="s">
-        <v>84</v>
-      </c>
+      <c r="H55" s="19"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="23" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
+      <c r="A58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="23" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="C59" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G59" s="11"/>
-      <c r="H59" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="22" t="s">
-        <v>72</v>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H61" s="14"/>
+      <c r="A61" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H61">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A2:G61">
-      <sortCondition ref="A1:A60"/>
+  <autoFilter ref="A1:H62">
+    <sortState ref="A2:H62">
+      <sortCondition ref="A1:A62"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2116,25 +2130,25 @@
     <hyperlink ref="H14" r:id="rId6"/>
     <hyperlink ref="H17" r:id="rId7"/>
     <hyperlink ref="H19" r:id="rId8"/>
-    <hyperlink ref="H34" r:id="rId9"/>
+    <hyperlink ref="H35" r:id="rId9"/>
     <hyperlink ref="H20" r:id="rId10"/>
     <hyperlink ref="H23" r:id="rId11"/>
-    <hyperlink ref="H32" r:id="rId12"/>
-    <hyperlink ref="H35" r:id="rId13"/>
-    <hyperlink ref="H38" r:id="rId14"/>
-    <hyperlink ref="H39" r:id="rId15"/>
-    <hyperlink ref="H49" r:id="rId16"/>
-    <hyperlink ref="H59" r:id="rId17"/>
-    <hyperlink ref="H47" r:id="rId18" location="/download"/>
-    <hyperlink ref="H60" r:id="rId19"/>
-    <hyperlink ref="H48" r:id="rId20"/>
-    <hyperlink ref="H57" r:id="rId21"/>
-    <hyperlink ref="H24" r:id="rId22"/>
+    <hyperlink ref="H33" r:id="rId12"/>
+    <hyperlink ref="H36" r:id="rId13"/>
+    <hyperlink ref="H39" r:id="rId14"/>
+    <hyperlink ref="H40" r:id="rId15"/>
+    <hyperlink ref="H50" r:id="rId16"/>
+    <hyperlink ref="H60" r:id="rId17"/>
+    <hyperlink ref="H48" r:id="rId18" location="/download"/>
+    <hyperlink ref="H61" r:id="rId19"/>
+    <hyperlink ref="H49" r:id="rId20"/>
+    <hyperlink ref="H58" r:id="rId21"/>
+    <hyperlink ref="H25" r:id="rId22"/>
     <hyperlink ref="H11" r:id="rId23"/>
-    <hyperlink ref="H56" r:id="rId24" location="Windows"/>
-    <hyperlink ref="H30" r:id="rId25"/>
-    <hyperlink ref="H28" r:id="rId26"/>
-    <hyperlink ref="H53" r:id="rId27"/>
+    <hyperlink ref="H57" r:id="rId24" location="Windows"/>
+    <hyperlink ref="H31" r:id="rId25"/>
+    <hyperlink ref="H29" r:id="rId26"/>
+    <hyperlink ref="H54" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="103">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>录屏截图软件 TechSmith Capture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>影音播放器 PotPlayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影音播放器 Ace Stream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>硬件信息查看软件 Aida64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,6 +417,18 @@
   </si>
   <si>
     <t>Adobe Flash Player去除Helper特别版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录屏截图软件 Bandicam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影音播放器 Ace Stream Player</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,13 +938,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -952,22 +956,22 @@
         <v>0</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -981,7 +985,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
@@ -1001,7 +1005,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
@@ -1014,12 +1018,12 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
@@ -1070,7 +1074,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1090,12 +1094,12 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
@@ -1115,7 +1119,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -1130,30 +1134,30 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
@@ -1165,13 +1169,13 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>4</v>
@@ -1184,12 +1188,12 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>4</v>
@@ -1204,7 +1208,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1249,7 +1253,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
@@ -1262,12 +1266,12 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>4</v>
@@ -1285,7 +1289,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
@@ -1298,12 +1302,12 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -1318,12 +1322,12 @@
         <v>4</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>4</v>
@@ -1343,7 +1347,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>4</v>
@@ -1361,7 +1365,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
@@ -1374,12 +1378,12 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>4</v>
@@ -1395,7 +1399,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16" t="s">
@@ -1408,12 +1412,12 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>4</v>
@@ -1429,13 +1433,13 @@
         <v>4</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
@@ -1453,7 +1457,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>4</v>
@@ -1469,7 +1473,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
@@ -1482,12 +1486,12 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>4</v>
@@ -1505,25 +1509,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>4</v>
@@ -1532,16 +1536,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>4</v>
@@ -1556,12 +1560,12 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
@@ -1577,7 +1581,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
@@ -1590,12 +1594,12 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>4</v>
@@ -1610,12 +1614,12 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>4</v>
@@ -1635,7 +1639,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -1653,7 +1657,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -1666,12 +1670,12 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
@@ -1684,12 +1688,12 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>4</v>
@@ -1705,13 +1709,13 @@
         <v>4</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>4</v>
@@ -1727,13 +1731,13 @@
         <v>4</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>4</v>
@@ -1749,7 +1753,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>4</v>
@@ -1769,7 +1773,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>4</v>
@@ -1789,7 +1793,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
@@ -1801,13 +1805,13 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>4</v>
@@ -1827,7 +1831,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>4</v>
@@ -1840,12 +1844,12 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>4</v>
@@ -1860,12 +1864,12 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>4</v>
@@ -1880,12 +1884,12 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>4</v>
@@ -1905,7 +1909,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>4</v>
@@ -1925,7 +1929,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>4</v>
@@ -1943,7 +1947,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>4</v>
@@ -1956,15 +1960,15 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -1977,7 +1981,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>4</v>
@@ -1995,25 +1999,27 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D57" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>4</v>
@@ -2028,12 +2034,12 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>4</v>
@@ -2053,7 +2059,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
@@ -2066,12 +2072,12 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>4</v>
@@ -2084,12 +2090,12 @@
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>4</v>
@@ -2105,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H62" s="14"/>
     </row>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$64</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="107">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +429,22 @@
   </si>
   <si>
     <t>影音播放器 Ace Stream Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telegram Desktop 桌面PC版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhatsApp PC版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://desktop.telegram.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.whatsapp.com/download</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -1232,46 +1248,44 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="A16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="26" t="s">
-        <v>58</v>
+      <c r="A17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>4</v>
@@ -1283,112 +1297,116 @@
       <c r="E18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="19" t="s">
-        <v>59</v>
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="A20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="21" t="s">
-        <v>62</v>
-      </c>
+      <c r="B23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
         <v>4</v>
@@ -1398,518 +1416,512 @@
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="24" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="13" t="s">
+      <c r="B28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G29" s="11"/>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
+      <c r="B32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B33" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="19" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
+      <c r="B34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="15" t="s">
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="22" t="s">
+      <c r="B35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="26" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="19" t="s">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="13" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="13" t="s">
+      <c r="B43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="13" t="s">
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="13" t="s">
+      <c r="B44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="9" t="s">
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
+      <c r="B49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="23" t="s">
+      <c r="B50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="20" t="s">
+      <c r="B51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>4</v>
@@ -1917,24 +1929,26 @@
       <c r="C52" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="D52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="12"/>
+      <c r="H52" s="19" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="11"/>
+      <c r="C53" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
         <v>4</v>
@@ -1947,178 +1961,216 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="C54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G54" s="11"/>
-      <c r="H54" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="11"/>
+      <c r="F55" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G55" s="11"/>
-      <c r="H55" s="19"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
+      <c r="H56" s="19" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="19"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B59" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="C59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="23" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="9" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="23" t="s">
+      <c r="B60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="11" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="11" t="s">
+      <c r="B61" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="11"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="19" t="s">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="15" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="22" t="s">
+      <c r="B63" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="13" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="13" t="s">
+      <c r="B64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H62" s="14"/>
+      <c r="H64" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H62">
-    <sortState ref="A2:H62">
-      <sortCondition ref="A1:A62"/>
+  <autoFilter ref="A1:H64">
+    <sortState ref="A2:H64">
+      <sortCondition ref="A1:A64"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2134,30 +2186,32 @@
     <hyperlink ref="H10" r:id="rId4"/>
     <hyperlink ref="H13" r:id="rId5"/>
     <hyperlink ref="H14" r:id="rId6"/>
-    <hyperlink ref="H17" r:id="rId7"/>
-    <hyperlink ref="H19" r:id="rId8"/>
-    <hyperlink ref="H35" r:id="rId9"/>
-    <hyperlink ref="H20" r:id="rId10"/>
-    <hyperlink ref="H23" r:id="rId11"/>
-    <hyperlink ref="H33" r:id="rId12"/>
-    <hyperlink ref="H36" r:id="rId13"/>
-    <hyperlink ref="H39" r:id="rId14"/>
-    <hyperlink ref="H40" r:id="rId15"/>
-    <hyperlink ref="H50" r:id="rId16"/>
-    <hyperlink ref="H60" r:id="rId17"/>
-    <hyperlink ref="H48" r:id="rId18" location="/download"/>
-    <hyperlink ref="H61" r:id="rId19"/>
-    <hyperlink ref="H49" r:id="rId20"/>
-    <hyperlink ref="H58" r:id="rId21"/>
-    <hyperlink ref="H25" r:id="rId22"/>
+    <hyperlink ref="H19" r:id="rId7"/>
+    <hyperlink ref="H21" r:id="rId8"/>
+    <hyperlink ref="H37" r:id="rId9"/>
+    <hyperlink ref="H22" r:id="rId10"/>
+    <hyperlink ref="H25" r:id="rId11"/>
+    <hyperlink ref="H35" r:id="rId12"/>
+    <hyperlink ref="H38" r:id="rId13"/>
+    <hyperlink ref="H41" r:id="rId14"/>
+    <hyperlink ref="H42" r:id="rId15"/>
+    <hyperlink ref="H52" r:id="rId16"/>
+    <hyperlink ref="H62" r:id="rId17"/>
+    <hyperlink ref="H50" r:id="rId18" location="/download"/>
+    <hyperlink ref="H63" r:id="rId19"/>
+    <hyperlink ref="H51" r:id="rId20"/>
+    <hyperlink ref="H60" r:id="rId21"/>
+    <hyperlink ref="H27" r:id="rId22"/>
     <hyperlink ref="H11" r:id="rId23"/>
-    <hyperlink ref="H57" r:id="rId24" location="Windows"/>
-    <hyperlink ref="H31" r:id="rId25"/>
-    <hyperlink ref="H29" r:id="rId26"/>
-    <hyperlink ref="H54" r:id="rId27"/>
+    <hyperlink ref="H59" r:id="rId24" location="Windows"/>
+    <hyperlink ref="H33" r:id="rId25"/>
+    <hyperlink ref="H31" r:id="rId26"/>
+    <hyperlink ref="H56" r:id="rId27"/>
+    <hyperlink ref="H16" r:id="rId28"/>
+    <hyperlink ref="H17" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -356,14 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乐播投屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hpplay.com.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡饭输入法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,6 +437,14 @@
   </si>
   <si>
     <t>https://www.whatsapp.com/download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幕享投屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://letsview.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>51</v>
@@ -1034,12 +1034,12 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -1264,12 +1264,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -1280,7 +1280,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1435,7 +1435,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>4</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
@@ -1525,7 +1525,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
@@ -1538,7 +1538,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1560,59 +1560,59 @@
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="22" t="s">
-        <v>63</v>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1727,7 +1727,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
@@ -1805,7 +1805,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>4</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>4</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>4</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>4</v>
@@ -2012,12 +2012,12 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>77</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>76</v>
@@ -2191,7 +2191,7 @@
     <hyperlink ref="H37" r:id="rId9"/>
     <hyperlink ref="H22" r:id="rId10"/>
     <hyperlink ref="H25" r:id="rId11"/>
-    <hyperlink ref="H35" r:id="rId12"/>
+    <hyperlink ref="H34" r:id="rId12"/>
     <hyperlink ref="H38" r:id="rId13"/>
     <hyperlink ref="H41" r:id="rId14"/>
     <hyperlink ref="H42" r:id="rId15"/>
@@ -2204,7 +2204,7 @@
     <hyperlink ref="H27" r:id="rId22"/>
     <hyperlink ref="H11" r:id="rId23"/>
     <hyperlink ref="H59" r:id="rId24" location="Windows"/>
-    <hyperlink ref="H33" r:id="rId25"/>
+    <hyperlink ref="H35" r:id="rId25"/>
     <hyperlink ref="H31" r:id="rId26"/>
     <hyperlink ref="H56" r:id="rId27"/>
     <hyperlink ref="H16" r:id="rId28"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -265,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://page.dingtalk.com/wow/dingtalk/act/download?spm=a213l2.13146415.4929779444.72.7f1521c96emo7i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://adl.netease.com/d/g/hy/c/gwpcb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡饭输入法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>梯子工具 Shadowsocks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,18 +380,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://down.360safe.com/360sd/360sd_plus_5.0.0.8180.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>迅雷（优化精简版）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手心输入法（备选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否为工作需要的软件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,6 +429,22 @@
   </si>
   <si>
     <t>https://letsview.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sd.360.cn/download_center.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手心输入法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡饭输入法（备选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pc.qq.com/detail/0/detail_26980.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>51</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -1034,12 +1034,12 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="24" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
@@ -1155,20 +1155,20 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -1264,12 +1264,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -1280,7 +1280,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1374,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1430,12 +1430,12 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>4</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
@@ -1464,7 +1464,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1485,13 +1485,13 @@
         <v>4</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
@@ -1525,7 +1525,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
@@ -1538,7 +1538,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1561,7 +1561,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="10"/>
@@ -1594,25 +1594,25 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1666,7 +1666,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1722,12 +1722,12 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
@@ -1740,7 +1740,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" s="14"/>
     </row>
@@ -1783,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H44" s="14"/>
     </row>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>4</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>4</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -1896,7 +1896,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -1916,7 +1916,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -1936,7 +1936,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -1981,7 +1981,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>4</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>4</v>
@@ -2012,15 +2012,15 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2051,22 +2051,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2086,12 +2086,12 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>4</v>
@@ -2124,7 +2124,7 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2142,7 +2142,7 @@
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="H63" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2163,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H64" s="14"/>
     </row>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.oracle.com/cn/java/technologies/javase/javase-jdk8-downloads.html#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.python.org/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,6 +441,10 @@
   </si>
   <si>
     <t>https://pc.qq.com/detail/0/detail_26980.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.oracle.com/java/technologies/downloads/#java8-windows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>51</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -1034,12 +1034,12 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
@@ -1155,20 +1155,20 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -1204,7 +1204,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="18" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1224,7 +1224,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1249,7 +1249,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -1264,12 +1264,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -1280,7 +1280,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1318,7 +1318,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1354,7 +1354,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1374,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1430,12 +1430,12 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>4</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16" t="s">
@@ -1464,7 +1464,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1485,13 +1485,13 @@
         <v>4</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
@@ -1525,7 +1525,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
@@ -1538,7 +1538,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1561,7 +1561,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="10"/>
@@ -1594,25 +1594,25 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1646,7 +1646,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1666,7 +1666,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1722,12 +1722,12 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
@@ -1740,7 +1740,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H43" s="14"/>
     </row>
@@ -1783,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H44" s="14"/>
     </row>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>4</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>4</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -1896,7 +1896,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -1916,7 +1916,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -1936,7 +1936,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -1981,7 +1981,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>4</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>4</v>
@@ -2012,15 +2012,15 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2051,22 +2051,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2086,12 +2086,12 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>4</v>
@@ -2124,7 +2124,7 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2142,7 +2142,7 @@
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="H63" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2163,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H64" s="14"/>
     </row>
@@ -2184,7 +2184,7 @@
     <hyperlink ref="H7" r:id="rId2"/>
     <hyperlink ref="H8" r:id="rId3" location="product-desktop-release"/>
     <hyperlink ref="H10" r:id="rId4"/>
-    <hyperlink ref="H13" r:id="rId5"/>
+    <hyperlink ref="H13" r:id="rId5" location="java8-windows"/>
     <hyperlink ref="H14" r:id="rId6"/>
     <hyperlink ref="H19" r:id="rId7"/>
     <hyperlink ref="H21" r:id="rId8"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$66</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="111">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,22 @@
   </si>
   <si>
     <t>https://www.oracle.com/java/technologies/downloads/#java8-windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEGA网盘 (32位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEGA网盘 (64位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEGA网盘32位下载地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEGA网盘64位下载地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +637,14 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -937,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -1208,122 +1231,120 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="18" t="s">
+      <c r="B16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="18" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="20" t="s">
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="20" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>4</v>
@@ -1335,112 +1356,116 @@
       <c r="E20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="19" t="s">
-        <v>58</v>
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>105</v>
-      </c>
+      <c r="A22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="B25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
         <v>4</v>
@@ -1450,518 +1475,512 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="24" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="13" t="s">
+      <c r="B30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G31" s="11"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
+      <c r="B34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
+      <c r="B35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="15" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="22" t="s">
+      <c r="B36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="19" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="26" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="19" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="13" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="13" t="s">
+      <c r="B45" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="13" t="s">
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="13" t="s">
+      <c r="B46" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="9" t="s">
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="9" t="s">
+      <c r="B51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="23" t="s">
+      <c r="B52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="20" t="s">
+      <c r="B53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>4</v>
@@ -1969,24 +1988,26 @@
       <c r="C54" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="D54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="12"/>
+      <c r="H54" s="19" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="11"/>
+      <c r="C55" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
         <v>4</v>
@@ -1999,183 +2020,221 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="C56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G56" s="11"/>
-      <c r="H56" s="19" t="s">
-        <v>88</v>
-      </c>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G57" s="11"/>
-      <c r="H57" s="19"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
+      <c r="H58" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="19"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B61" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="C61" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="23" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="9" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="23" t="s">
+      <c r="B62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="11" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="11" t="s">
+      <c r="B63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="19" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="15" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="22" t="s">
+      <c r="B65" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="13" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="13" t="s">
+      <c r="B66" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H64" s="14"/>
+      <c r="H66" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H64">
-    <sortState ref="A2:H64">
-      <sortCondition ref="A1:A64"/>
+  <autoFilter ref="A1:H66">
+    <sortState ref="A2:H66">
+      <sortCondition ref="A1:A66"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2185,30 +2244,30 @@
     <hyperlink ref="H8" r:id="rId3" location="product-desktop-release"/>
     <hyperlink ref="H10" r:id="rId4"/>
     <hyperlink ref="H13" r:id="rId5" location="java8-windows"/>
-    <hyperlink ref="H14" r:id="rId6"/>
-    <hyperlink ref="H19" r:id="rId7"/>
-    <hyperlink ref="H21" r:id="rId8"/>
-    <hyperlink ref="H37" r:id="rId9"/>
-    <hyperlink ref="H22" r:id="rId10"/>
-    <hyperlink ref="H25" r:id="rId11"/>
-    <hyperlink ref="H34" r:id="rId12"/>
-    <hyperlink ref="H38" r:id="rId13"/>
-    <hyperlink ref="H41" r:id="rId14"/>
-    <hyperlink ref="H42" r:id="rId15"/>
-    <hyperlink ref="H52" r:id="rId16"/>
-    <hyperlink ref="H62" r:id="rId17"/>
-    <hyperlink ref="H50" r:id="rId18" location="/download"/>
-    <hyperlink ref="H63" r:id="rId19"/>
-    <hyperlink ref="H51" r:id="rId20"/>
-    <hyperlink ref="H60" r:id="rId21"/>
-    <hyperlink ref="H27" r:id="rId22"/>
+    <hyperlink ref="H16" r:id="rId6"/>
+    <hyperlink ref="H21" r:id="rId7"/>
+    <hyperlink ref="H23" r:id="rId8"/>
+    <hyperlink ref="H39" r:id="rId9"/>
+    <hyperlink ref="H24" r:id="rId10"/>
+    <hyperlink ref="H27" r:id="rId11"/>
+    <hyperlink ref="H36" r:id="rId12"/>
+    <hyperlink ref="H40" r:id="rId13"/>
+    <hyperlink ref="H43" r:id="rId14"/>
+    <hyperlink ref="H44" r:id="rId15"/>
+    <hyperlink ref="H54" r:id="rId16"/>
+    <hyperlink ref="H64" r:id="rId17"/>
+    <hyperlink ref="H52" r:id="rId18" location="/download"/>
+    <hyperlink ref="H65" r:id="rId19"/>
+    <hyperlink ref="H53" r:id="rId20"/>
+    <hyperlink ref="H62" r:id="rId21"/>
+    <hyperlink ref="H29" r:id="rId22"/>
     <hyperlink ref="H11" r:id="rId23"/>
-    <hyperlink ref="H59" r:id="rId24" location="Windows"/>
-    <hyperlink ref="H35" r:id="rId25"/>
-    <hyperlink ref="H31" r:id="rId26"/>
-    <hyperlink ref="H56" r:id="rId27"/>
-    <hyperlink ref="H16" r:id="rId28"/>
-    <hyperlink ref="H17" r:id="rId29"/>
+    <hyperlink ref="H61" r:id="rId24" location="Windows"/>
+    <hyperlink ref="H37" r:id="rId25"/>
+    <hyperlink ref="H33" r:id="rId26"/>
+    <hyperlink ref="H58" r:id="rId27"/>
+    <hyperlink ref="H18" r:id="rId28"/>
+    <hyperlink ref="H19" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -456,11 +456,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MEGA网盘32位下载地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEGA网盘64位下载地址</t>
+    <t>https://mega.nz/MEGAsyncSetup32.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mega.nz/MEGAsyncSetup64.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,14 +637,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1244,7 +1237,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1262,7 +1255,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="19" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2234,7 +2227,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2268,9 +2261,11 @@
     <hyperlink ref="H58" r:id="rId27"/>
     <hyperlink ref="H18" r:id="rId28"/>
     <hyperlink ref="H19" r:id="rId29"/>
+    <hyperlink ref="H14" r:id="rId30"/>
+    <hyperlink ref="H15" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$67</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="112">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>荒野行动PC版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腾讯软件管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://adl.netease.com/d/g/hy/c/gwpcb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://nper.cmbc.com.cn/pweb/static/login.html#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,6 +453,18 @@
   </si>
   <si>
     <t>https://mega.nz/MEGAsyncSetup64.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 Qdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lightzhan.xyz/index.php/qdown/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载工具 Geek Uninstaller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,12 +527,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -617,27 +615,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -953,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -970,13 +974,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -987,107 +991,107 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1105,8 +1109,8 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="25" t="s">
-        <v>53</v>
+      <c r="H7" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1125,158 +1129,158 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="18" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1301,7 +1305,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -1315,13 +1319,13 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="20" t="s">
-        <v>98</v>
+      <c r="H18" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>4</v>
@@ -1331,33 +1335,33 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="20" t="s">
-        <v>99</v>
+      <c r="H19" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
@@ -1369,49 +1373,49 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="16" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
@@ -1425,809 +1429,831 @@
       <c r="G24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>105</v>
+      <c r="H24" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
+      <c r="B25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="A27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+      <c r="A28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="24" t="s">
-        <v>71</v>
-      </c>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="14"/>
+      <c r="A30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
+      <c r="A31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
+      <c r="A32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="16" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="19" t="s">
-        <v>85</v>
-      </c>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
+      <c r="A34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
+      <c r="A35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="22" t="s">
-        <v>61</v>
+      <c r="A36" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
+      <c r="A38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="19" t="s">
-        <v>59</v>
+      <c r="A39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="A40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="4"/>
+      <c r="H42" s="22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="26" t="s">
-        <v>63</v>
+      <c r="A43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="C44" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H45" s="14"/>
+      <c r="B45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="14"/>
+      <c r="A46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
+      <c r="A47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
+      <c r="A48" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
+      <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H50" s="4"/>
+      <c r="A50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="10"/>
+      <c r="A51" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="19" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="23" t="s">
+      <c r="A52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="20" t="s">
-        <v>69</v>
+      <c r="A53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="19" t="s">
-        <v>65</v>
-      </c>
+      <c r="A54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
+      <c r="A55" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="11" t="s">
+      <c r="B57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="19"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="12"/>
+      <c r="B60" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="23" t="s">
-        <v>79</v>
-      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
+      <c r="B63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="19" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="A64" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="22" t="s">
-        <v>68</v>
+      <c r="A65" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H66" s="14"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H66">
-    <sortState ref="A2:H66">
-      <sortCondition ref="A1:A66"/>
+  <autoFilter ref="A1:H67">
+    <sortState ref="A2:H67">
+      <sortCondition ref="A1:A67"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2240,29 +2266,29 @@
     <hyperlink ref="H16" r:id="rId6"/>
     <hyperlink ref="H21" r:id="rId7"/>
     <hyperlink ref="H23" r:id="rId8"/>
-    <hyperlink ref="H39" r:id="rId9"/>
+    <hyperlink ref="H38" r:id="rId9"/>
     <hyperlink ref="H24" r:id="rId10"/>
-    <hyperlink ref="H27" r:id="rId11"/>
-    <hyperlink ref="H36" r:id="rId12"/>
-    <hyperlink ref="H40" r:id="rId13"/>
+    <hyperlink ref="H35" r:id="rId11"/>
+    <hyperlink ref="H39" r:id="rId12"/>
+    <hyperlink ref="H42" r:id="rId13"/>
     <hyperlink ref="H43" r:id="rId14"/>
-    <hyperlink ref="H44" r:id="rId15"/>
-    <hyperlink ref="H54" r:id="rId16"/>
-    <hyperlink ref="H64" r:id="rId17"/>
-    <hyperlink ref="H52" r:id="rId18" location="/download"/>
-    <hyperlink ref="H65" r:id="rId19"/>
-    <hyperlink ref="H53" r:id="rId20"/>
-    <hyperlink ref="H62" r:id="rId21"/>
-    <hyperlink ref="H29" r:id="rId22"/>
-    <hyperlink ref="H11" r:id="rId23"/>
-    <hyperlink ref="H61" r:id="rId24" location="Windows"/>
-    <hyperlink ref="H37" r:id="rId25"/>
-    <hyperlink ref="H33" r:id="rId26"/>
-    <hyperlink ref="H58" r:id="rId27"/>
-    <hyperlink ref="H18" r:id="rId28"/>
-    <hyperlink ref="H19" r:id="rId29"/>
-    <hyperlink ref="H14" r:id="rId30"/>
-    <hyperlink ref="H15" r:id="rId31"/>
+    <hyperlink ref="H53" r:id="rId15"/>
+    <hyperlink ref="H65" r:id="rId16"/>
+    <hyperlink ref="H51" r:id="rId17" location="/download"/>
+    <hyperlink ref="H66" r:id="rId18"/>
+    <hyperlink ref="H52" r:id="rId19"/>
+    <hyperlink ref="H63" r:id="rId20"/>
+    <hyperlink ref="H28" r:id="rId21"/>
+    <hyperlink ref="H11" r:id="rId22"/>
+    <hyperlink ref="H62" r:id="rId23" location="Windows"/>
+    <hyperlink ref="H36" r:id="rId24"/>
+    <hyperlink ref="H32" r:id="rId25"/>
+    <hyperlink ref="H59" r:id="rId26"/>
+    <hyperlink ref="H18" r:id="rId27"/>
+    <hyperlink ref="H19" r:id="rId28"/>
+    <hyperlink ref="H14" r:id="rId29"/>
+    <hyperlink ref="H15" r:id="rId30"/>
+    <hyperlink ref="H55" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$64</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="106">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,30 +437,6 @@
   </si>
   <si>
     <t>https://www.oracle.com/java/technologies/downloads/#java8-windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEGA网盘 (32位)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEGA网盘 (64位)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mega.nz/MEGAsyncSetup32.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mega.nz/MEGAsyncSetup64.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载工具 Qdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://lightzhan.xyz/index.php/qdown/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,14 +610,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -957,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -1228,120 +1197,122 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="16" t="s">
-        <v>107</v>
+      <c r="A14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25" t="s">
-        <v>55</v>
+      <c r="A16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="17" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="17" t="s">
-        <v>96</v>
-      </c>
+      <c r="A18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="17" t="s">
-        <v>97</v>
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>4</v>
@@ -1353,613 +1324,615 @@
       <c r="E20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="22" t="s">
-        <v>56</v>
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
+      <c r="A22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="C23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>103</v>
-      </c>
+      <c r="A24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
+      <c r="A26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
+      <c r="A27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="A28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="12"/>
+      <c r="A29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="16" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
+      <c r="A31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="16" t="s">
-        <v>83</v>
-      </c>
+      <c r="A32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
+      <c r="A33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
+      <c r="A34" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="16" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="18" t="s">
-        <v>59</v>
-      </c>
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="16" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
+      <c r="A37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="C38" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
+      <c r="A41" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="A42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="16" t="s">
-        <v>62</v>
-      </c>
+      <c r="A43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="12"/>
+      <c r="A44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="12"/>
+      <c r="A45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G46" s="9"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
+      <c r="A47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
+      <c r="A48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="4"/>
+      <c r="A49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="19" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
+      <c r="A50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="19" t="s">
-        <v>65</v>
+      <c r="A51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="A52" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>4</v>
@@ -1967,19 +1940,19 @@
       <c r="C53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>4</v>
@@ -1999,119 +1972,117 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="16" t="s">
-        <v>110</v>
-      </c>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
+      <c r="H56" s="16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="16" t="s">
-        <v>86</v>
+      <c r="A59" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="16"/>
+      <c r="A60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="19" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>4</v>
@@ -2123,137 +2094,79 @@
       <c r="E61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G61" s="9"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="8" t="s">
+      <c r="A62" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="12"/>
+      <c r="H64" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H67">
-    <sortState ref="A2:H67">
-      <sortCondition ref="A1:A67"/>
+  <autoFilter ref="A1:H64">
+    <sortState ref="A2:H64">
+      <sortCondition ref="A1:A64"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2263,35 +2176,31 @@
     <hyperlink ref="H8" r:id="rId3" location="product-desktop-release"/>
     <hyperlink ref="H10" r:id="rId4"/>
     <hyperlink ref="H13" r:id="rId5" location="java8-windows"/>
-    <hyperlink ref="H16" r:id="rId6"/>
+    <hyperlink ref="H19" r:id="rId6"/>
     <hyperlink ref="H21" r:id="rId7"/>
-    <hyperlink ref="H23" r:id="rId8"/>
-    <hyperlink ref="H38" r:id="rId9"/>
-    <hyperlink ref="H24" r:id="rId10"/>
-    <hyperlink ref="H35" r:id="rId11"/>
-    <hyperlink ref="H39" r:id="rId12"/>
-    <hyperlink ref="H42" r:id="rId13"/>
-    <hyperlink ref="H43" r:id="rId14"/>
-    <hyperlink ref="H53" r:id="rId15"/>
-    <hyperlink ref="H65" r:id="rId16"/>
-    <hyperlink ref="H51" r:id="rId17" location="/download"/>
-    <hyperlink ref="H66" r:id="rId18"/>
-    <hyperlink ref="H52" r:id="rId19"/>
-    <hyperlink ref="H63" r:id="rId20"/>
-    <hyperlink ref="H28" r:id="rId21"/>
-    <hyperlink ref="H11" r:id="rId22"/>
-    <hyperlink ref="H62" r:id="rId23" location="Windows"/>
-    <hyperlink ref="H36" r:id="rId24"/>
-    <hyperlink ref="H32" r:id="rId25"/>
-    <hyperlink ref="H59" r:id="rId26"/>
-    <hyperlink ref="H18" r:id="rId27"/>
-    <hyperlink ref="H19" r:id="rId28"/>
-    <hyperlink ref="H14" r:id="rId29"/>
-    <hyperlink ref="H15" r:id="rId30"/>
-    <hyperlink ref="H55" r:id="rId31"/>
+    <hyperlink ref="H36" r:id="rId8"/>
+    <hyperlink ref="H22" r:id="rId9"/>
+    <hyperlink ref="H33" r:id="rId10"/>
+    <hyperlink ref="H37" r:id="rId11"/>
+    <hyperlink ref="H40" r:id="rId12"/>
+    <hyperlink ref="H41" r:id="rId13"/>
+    <hyperlink ref="H51" r:id="rId14"/>
+    <hyperlink ref="H62" r:id="rId15"/>
+    <hyperlink ref="H49" r:id="rId16" location="/download"/>
+    <hyperlink ref="H63" r:id="rId17"/>
+    <hyperlink ref="H50" r:id="rId18"/>
+    <hyperlink ref="H60" r:id="rId19"/>
+    <hyperlink ref="H26" r:id="rId20"/>
+    <hyperlink ref="H11" r:id="rId21"/>
+    <hyperlink ref="H59" r:id="rId22" location="Windows"/>
+    <hyperlink ref="H34" r:id="rId23"/>
+    <hyperlink ref="H30" r:id="rId24"/>
+    <hyperlink ref="H56" r:id="rId25"/>
+    <hyperlink ref="H16" r:id="rId26"/>
+    <hyperlink ref="H17" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$69</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="111">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>迅雷（优化精简版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否为工作需要的软件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,6 +437,30 @@
   </si>
   <si>
     <t>卸载工具 Geek Uninstaller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅雷X（优化版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 闪电下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 Free Download Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 Internet Download Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feem（局域网内文件传输工具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LanDrop（局域网内文件传输工具）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,13 +624,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -926,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -961,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>50</v>
@@ -1023,12 +1071,12 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>4</v>
@@ -1083,129 +1131,129 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="22" t="s">
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
+      <c r="B11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="G13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>4</v>
-      </c>
+      <c r="C14" s="26"/>
       <c r="D14" s="24" t="s">
         <v>4</v>
       </c>
@@ -1213,106 +1261,106 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="22" t="s">
-        <v>56</v>
+      <c r="A19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>4</v>
@@ -1324,615 +1372,613 @@
       <c r="E20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="16" t="s">
-        <v>57</v>
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>103</v>
-      </c>
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="20" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="B29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+      <c r="B33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="18" t="s">
+      <c r="B35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="22" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="16" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="B44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="11" t="s">
+      <c r="B45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
+      <c r="B50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="19" t="s">
+      <c r="B51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="17" t="s">
+      <c r="B52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>4</v>
@@ -1940,19 +1986,19 @@
       <c r="C53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="10"/>
+      <c r="H53" s="16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>4</v>
@@ -1972,12 +2018,14 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
         <v>4</v>
@@ -1986,45 +2034,51 @@
         <v>4</v>
       </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="10"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="C56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="16" t="s">
-        <v>86</v>
-      </c>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G57" s="9"/>
       <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>4</v>
@@ -2036,168 +2090,270 @@
       <c r="E58" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G58" s="9"/>
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="19" t="s">
-        <v>77</v>
-      </c>
+      <c r="A59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="19" t="s">
-        <v>68</v>
-      </c>
+      <c r="A60" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="10"/>
+      <c r="H61" s="16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="13" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="18" t="s">
+      <c r="B68" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="11" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="11" t="s">
+      <c r="B69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H64" s="12"/>
+      <c r="H69" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H64">
-    <sortState ref="A2:H64">
-      <sortCondition ref="A1:A64"/>
+  <autoFilter ref="A1:H69">
+    <sortState ref="A2:H69">
+      <sortCondition ref="A1:A69"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
+  <conditionalFormatting sqref="A1:A57 A60:A1048576">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1"/>
     <hyperlink ref="H7" r:id="rId2"/>
-    <hyperlink ref="H8" r:id="rId3" location="product-desktop-release"/>
-    <hyperlink ref="H10" r:id="rId4"/>
-    <hyperlink ref="H13" r:id="rId5" location="java8-windows"/>
-    <hyperlink ref="H19" r:id="rId6"/>
-    <hyperlink ref="H21" r:id="rId7"/>
-    <hyperlink ref="H36" r:id="rId8"/>
-    <hyperlink ref="H22" r:id="rId9"/>
-    <hyperlink ref="H33" r:id="rId10"/>
-    <hyperlink ref="H37" r:id="rId11"/>
-    <hyperlink ref="H40" r:id="rId12"/>
-    <hyperlink ref="H41" r:id="rId13"/>
-    <hyperlink ref="H51" r:id="rId14"/>
-    <hyperlink ref="H62" r:id="rId15"/>
-    <hyperlink ref="H49" r:id="rId16" location="/download"/>
-    <hyperlink ref="H63" r:id="rId17"/>
-    <hyperlink ref="H50" r:id="rId18"/>
-    <hyperlink ref="H60" r:id="rId19"/>
-    <hyperlink ref="H26" r:id="rId20"/>
-    <hyperlink ref="H11" r:id="rId21"/>
-    <hyperlink ref="H59" r:id="rId22" location="Windows"/>
-    <hyperlink ref="H34" r:id="rId23"/>
-    <hyperlink ref="H30" r:id="rId24"/>
-    <hyperlink ref="H56" r:id="rId25"/>
-    <hyperlink ref="H16" r:id="rId26"/>
-    <hyperlink ref="H17" r:id="rId27"/>
+    <hyperlink ref="H9" r:id="rId3" location="product-desktop-release"/>
+    <hyperlink ref="H11" r:id="rId4"/>
+    <hyperlink ref="H14" r:id="rId5" location="java8-windows"/>
+    <hyperlink ref="H21" r:id="rId6"/>
+    <hyperlink ref="H23" r:id="rId7"/>
+    <hyperlink ref="H38" r:id="rId8"/>
+    <hyperlink ref="H24" r:id="rId9"/>
+    <hyperlink ref="H35" r:id="rId10"/>
+    <hyperlink ref="H39" r:id="rId11"/>
+    <hyperlink ref="H42" r:id="rId12"/>
+    <hyperlink ref="H43" r:id="rId13"/>
+    <hyperlink ref="H53" r:id="rId14"/>
+    <hyperlink ref="H67" r:id="rId15"/>
+    <hyperlink ref="H51" r:id="rId16" location="/download"/>
+    <hyperlink ref="H68" r:id="rId17"/>
+    <hyperlink ref="H52" r:id="rId18"/>
+    <hyperlink ref="H65" r:id="rId19"/>
+    <hyperlink ref="H28" r:id="rId20"/>
+    <hyperlink ref="H12" r:id="rId21"/>
+    <hyperlink ref="H64" r:id="rId22" location="Windows"/>
+    <hyperlink ref="H36" r:id="rId23"/>
+    <hyperlink ref="H32" r:id="rId24"/>
+    <hyperlink ref="H61" r:id="rId25"/>
+    <hyperlink ref="H18" r:id="rId26"/>
+    <hyperlink ref="H19" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$70</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="112">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,10 @@
   </si>
   <si>
     <t>LanDrop（局域网内文件传输工具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 BitComet比特彗星 (隐藏功能解锁版)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,14 +634,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -974,13 +971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
@@ -2018,7 +2015,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>4</v>
@@ -2038,7 +2035,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>4</v>
@@ -2058,7 +2055,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>4</v>
@@ -2078,7 +2075,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>4</v>
@@ -2094,11 +2091,11 @@
         <v>4</v>
       </c>
       <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>4</v>
@@ -2118,12 +2115,14 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
         <v>4</v>
@@ -2136,194 +2135,212 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G61" s="9"/>
-      <c r="H61" s="16" t="s">
-        <v>86</v>
-      </c>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="16"/>
+      <c r="H62" s="16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="19" t="s">
-        <v>77</v>
-      </c>
+      <c r="A64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="19" t="s">
+      <c r="B66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="16" t="s">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="13" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="18" t="s">
+      <c r="B69" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="11" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" s="11" t="s">
+      <c r="B70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H69" s="12"/>
+      <c r="H70" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H69">
-    <sortState ref="A2:H69">
-      <sortCondition ref="A1:A69"/>
+  <autoFilter ref="A1:H70">
+    <sortState ref="A2:H70">
+      <sortCondition ref="A1:A70"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A57 A60:A1048576">
+  <conditionalFormatting sqref="A61:A1048576 A1:A58">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
+  <conditionalFormatting sqref="A59">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
+  <conditionalFormatting sqref="A60">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2341,17 +2358,17 @@
     <hyperlink ref="H42" r:id="rId12"/>
     <hyperlink ref="H43" r:id="rId13"/>
     <hyperlink ref="H53" r:id="rId14"/>
-    <hyperlink ref="H67" r:id="rId15"/>
+    <hyperlink ref="H68" r:id="rId15"/>
     <hyperlink ref="H51" r:id="rId16" location="/download"/>
-    <hyperlink ref="H68" r:id="rId17"/>
+    <hyperlink ref="H69" r:id="rId17"/>
     <hyperlink ref="H52" r:id="rId18"/>
-    <hyperlink ref="H65" r:id="rId19"/>
+    <hyperlink ref="H66" r:id="rId19"/>
     <hyperlink ref="H28" r:id="rId20"/>
     <hyperlink ref="H12" r:id="rId21"/>
-    <hyperlink ref="H64" r:id="rId22" location="Windows"/>
+    <hyperlink ref="H65" r:id="rId22" location="Windows"/>
     <hyperlink ref="H36" r:id="rId23"/>
     <hyperlink ref="H32" r:id="rId24"/>
-    <hyperlink ref="H61" r:id="rId25"/>
+    <hyperlink ref="H62" r:id="rId25"/>
     <hyperlink ref="H18" r:id="rId26"/>
     <hyperlink ref="H19" r:id="rId27"/>
   </hyperlinks>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$72</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="115">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,7 +464,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下载工具 BitComet比特彗星 (隐藏功能解锁版)</t>
+    <t>下载工具 eMule Scar Angel(天使螺)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 eMule(电骡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 qBittorrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/c0re100/qBittorrent-Enhanced-Edition/releases/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,9 +983,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1415,7 +1427,9 @@
       <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="C23" s="9" t="s">
         <v>4</v>
       </c>
@@ -2035,7 +2049,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>4</v>
@@ -2055,7 +2069,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>4</v>
@@ -2075,7 +2089,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>4</v>
@@ -2095,7 +2109,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>4</v>
@@ -2103,19 +2117,19 @@
       <c r="C59" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
+      <c r="H59" s="16" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>4</v>
@@ -2131,16 +2145,18 @@
         <v>4</v>
       </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
         <v>4</v>
@@ -2153,194 +2169,237 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+      <c r="C62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G62" s="9"/>
-      <c r="H62" s="16" t="s">
-        <v>86</v>
-      </c>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G63" s="9"/>
-      <c r="H63" s="16"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
+      <c r="H64" s="16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="C67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="19" t="s">
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="7" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="19" t="s">
+      <c r="B68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="9" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
+      <c r="B69" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="16" t="s">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="13" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="18" t="s">
+      <c r="B71" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="11" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="11" t="s">
+      <c r="B72" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H70" s="12"/>
+      <c r="H72" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H70">
-    <sortState ref="A2:H70">
-      <sortCondition ref="A1:A70"/>
+  <autoFilter ref="A1:H72">
+    <sortState ref="A2:H72">
+      <sortCondition ref="A1:A72"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A61:A1048576 A1:A58">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="浏览器">
+  <conditionalFormatting sqref="A63:A1048576 A1:A55 A57:A60">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A59)))</formula>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A60)))</formula>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2358,22 +2417,23 @@
     <hyperlink ref="H42" r:id="rId12"/>
     <hyperlink ref="H43" r:id="rId13"/>
     <hyperlink ref="H53" r:id="rId14"/>
-    <hyperlink ref="H68" r:id="rId15"/>
+    <hyperlink ref="H70" r:id="rId15"/>
     <hyperlink ref="H51" r:id="rId16" location="/download"/>
-    <hyperlink ref="H69" r:id="rId17"/>
+    <hyperlink ref="H71" r:id="rId17"/>
     <hyperlink ref="H52" r:id="rId18"/>
-    <hyperlink ref="H66" r:id="rId19"/>
+    <hyperlink ref="H68" r:id="rId19"/>
     <hyperlink ref="H28" r:id="rId20"/>
     <hyperlink ref="H12" r:id="rId21"/>
-    <hyperlink ref="H65" r:id="rId22" location="Windows"/>
+    <hyperlink ref="H67" r:id="rId22" location="Windows"/>
     <hyperlink ref="H36" r:id="rId23"/>
     <hyperlink ref="H32" r:id="rId24"/>
-    <hyperlink ref="H62" r:id="rId25"/>
+    <hyperlink ref="H64" r:id="rId25"/>
     <hyperlink ref="H18" r:id="rId26"/>
     <hyperlink ref="H19" r:id="rId27"/>
+    <hyperlink ref="H59" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://daumpotplayer.com/download/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.huorong.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,6 +473,10 @@
   </si>
   <si>
     <t>https://github.com/c0re100/qBittorrent-Enhanced-Edition/releases/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://potplayer.daum.net/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>50</v>
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
@@ -1080,12 +1080,12 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>4</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>4</v>
@@ -1221,20 +1221,20 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="26"/>
     </row>
@@ -1270,12 +1270,12 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>4</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -1348,12 +1348,12 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>4</v>
@@ -1364,7 +1364,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1460,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1503,7 +1503,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>4</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
@@ -1532,7 +1532,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1553,13 +1553,13 @@
         <v>4</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
@@ -1593,7 +1593,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
@@ -1606,7 +1606,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1629,7 +1629,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>4</v>
@@ -1640,7 +1640,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
@@ -1667,20 +1667,20 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1795,7 +1795,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
@@ -1829,7 +1829,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H44" s="12"/>
     </row>
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H45" s="12"/>
     </row>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>4</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>4</v>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" s="4"/>
     </row>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>4</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>4</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>4</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>4</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>4</v>
@@ -2124,12 +2124,12 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>4</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>4</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>4</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>4</v>
@@ -2220,15 +2220,15 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -2259,22 +2259,22 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2294,12 +2294,12 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="19" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>4</v>
@@ -2371,7 +2371,7 @@
         <v>4</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H72" s="12"/>
     </row>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$67</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="110">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图片查看工具 IrfanView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>办公软件 Office系列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>七星浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毒霸垃圾清理独立版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梯子工具 Shadowsocks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>梯子工具 v2rayN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">恢复Win 7样式开始菜单软件 StartIsBack+ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Adobe Flash Player去除Helper特别版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,18 +376,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WhatsApp PC版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://desktop.telegram.org/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.whatsapp.com/download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幕享投屏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,6 +453,10 @@
   </si>
   <si>
     <t>https://potplayer.daum.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.internetdownloadmanager.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -983,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -1000,13 +980,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1018,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
@@ -1047,7 +1027,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>4</v>
@@ -1067,7 +1047,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
@@ -1080,12 +1060,12 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>4</v>
@@ -1136,12 +1116,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>4</v>
@@ -1176,12 +1156,12 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>4</v>
@@ -1201,7 +1181,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>4</v>
@@ -1216,30 +1196,30 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="27" t="s">
@@ -1251,13 +1231,13 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>4</v>
@@ -1270,12 +1250,12 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>4</v>
@@ -1293,7 +1273,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>4</v>
@@ -1308,7 +1288,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1333,7 +1313,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -1348,124 +1328,126 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="17" t="s">
-        <v>95</v>
-      </c>
+      <c r="A19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="A21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="16" t="s">
-        <v>57</v>
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>101</v>
-      </c>
+      <c r="A24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>4</v>
@@ -1477,423 +1459,427 @@
       <c r="E25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
+      <c r="A26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
+      <c r="A27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="A28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="12"/>
+      <c r="B29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="16" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
+      <c r="A31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="A32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
+      <c r="A33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="18" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
+      <c r="A34" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
+      <c r="B34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="16" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="18" t="s">
+      <c r="B37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="22" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
+      <c r="H40" s="16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
+      <c r="A41" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="A42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="16" t="s">
-        <v>62</v>
-      </c>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="12"/>
+      <c r="A44" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
+      <c r="B46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="19" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
+      <c r="A47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>4</v>
@@ -1901,95 +1887,99 @@
       <c r="C48" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
+      <c r="H48" s="16" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H49" s="4"/>
+      <c r="A49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
+      <c r="A50" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="19" t="s">
-        <v>65</v>
-      </c>
+      <c r="A51" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="A52" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>4</v>
@@ -2004,12 +1994,12 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="16" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>4</v>
@@ -2017,19 +2007,19 @@
       <c r="C54" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="10"/>
+      <c r="H54" s="16" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>4</v>
@@ -2049,7 +2039,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>4</v>
@@ -2065,11 +2055,11 @@
         <v>4</v>
       </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="16"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>4</v>
@@ -2085,18 +2075,16 @@
         <v>4</v>
       </c>
       <c r="G57" s="9"/>
-      <c r="H57" s="16"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
         <v>4</v>
@@ -2105,18 +2093,16 @@
         <v>4</v>
       </c>
       <c r="G58" s="9"/>
-      <c r="H58" s="16"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C59" s="9"/>
       <c r="D59" s="9" t="s">
         <v>4</v>
       </c>
@@ -2124,32 +2110,28 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="16" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>4</v>
@@ -2161,245 +2143,153 @@
       <c r="E61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
+      <c r="A62" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
+      <c r="A63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="19" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
+      <c r="C64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G64" s="9"/>
-      <c r="H64" s="16" t="s">
-        <v>85</v>
-      </c>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="16"/>
+      <c r="H65" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10"/>
+      <c r="A66" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H72" s="12"/>
+      <c r="A67" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H67" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H72">
-    <sortState ref="A2:H72">
-      <sortCondition ref="A1:A72"/>
+  <autoFilter ref="A1:H67">
+    <sortState ref="A2:H67">
+      <sortCondition ref="A1:A67"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A63:A1048576 A1:A55 A57:A60">
+  <conditionalFormatting sqref="A58:A1048576 A52:A55 A1:A50">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
+  <conditionalFormatting sqref="A56">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A61)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A57">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
+  <conditionalFormatting sqref="A51">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2408,29 +2298,29 @@
     <hyperlink ref="H9" r:id="rId3" location="product-desktop-release"/>
     <hyperlink ref="H11" r:id="rId4"/>
     <hyperlink ref="H14" r:id="rId5" location="java8-windows"/>
-    <hyperlink ref="H21" r:id="rId6"/>
-    <hyperlink ref="H23" r:id="rId7"/>
-    <hyperlink ref="H38" r:id="rId8"/>
-    <hyperlink ref="H24" r:id="rId9"/>
-    <hyperlink ref="H35" r:id="rId10"/>
-    <hyperlink ref="H39" r:id="rId11"/>
-    <hyperlink ref="H42" r:id="rId12"/>
-    <hyperlink ref="H43" r:id="rId13"/>
-    <hyperlink ref="H53" r:id="rId14"/>
-    <hyperlink ref="H70" r:id="rId15"/>
-    <hyperlink ref="H51" r:id="rId16" location="/download"/>
-    <hyperlink ref="H71" r:id="rId17"/>
-    <hyperlink ref="H52" r:id="rId18"/>
-    <hyperlink ref="H68" r:id="rId19"/>
-    <hyperlink ref="H28" r:id="rId20"/>
+    <hyperlink ref="H20" r:id="rId6"/>
+    <hyperlink ref="H22" r:id="rId7"/>
+    <hyperlink ref="H35" r:id="rId8"/>
+    <hyperlink ref="H23" r:id="rId9"/>
+    <hyperlink ref="H33" r:id="rId10"/>
+    <hyperlink ref="H36" r:id="rId11"/>
+    <hyperlink ref="H39" r:id="rId12"/>
+    <hyperlink ref="H40" r:id="rId13"/>
+    <hyperlink ref="H48" r:id="rId14"/>
+    <hyperlink ref="H65" r:id="rId15"/>
+    <hyperlink ref="H46" r:id="rId16" location="/download"/>
+    <hyperlink ref="H66" r:id="rId17"/>
+    <hyperlink ref="H47" r:id="rId18"/>
+    <hyperlink ref="H63" r:id="rId19"/>
+    <hyperlink ref="H26" r:id="rId20"/>
     <hyperlink ref="H12" r:id="rId21"/>
-    <hyperlink ref="H67" r:id="rId22" location="Windows"/>
-    <hyperlink ref="H36" r:id="rId23"/>
-    <hyperlink ref="H32" r:id="rId24"/>
-    <hyperlink ref="H64" r:id="rId25"/>
+    <hyperlink ref="H62" r:id="rId22" location="Windows"/>
+    <hyperlink ref="H34" r:id="rId23"/>
+    <hyperlink ref="H30" r:id="rId24"/>
+    <hyperlink ref="H59" r:id="rId25"/>
     <hyperlink ref="H18" r:id="rId26"/>
-    <hyperlink ref="H19" r:id="rId27"/>
-    <hyperlink ref="H59" r:id="rId28"/>
+    <hyperlink ref="H54" r:id="rId27"/>
+    <hyperlink ref="H53" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="109">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,10 +453,6 @@
   </si>
   <si>
     <t>https://potplayer.daum.net/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.internetdownloadmanager.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1987,15 +1983,15 @@
       <c r="C53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
@@ -2320,10 +2316,9 @@
     <hyperlink ref="H59" r:id="rId25"/>
     <hyperlink ref="H18" r:id="rId26"/>
     <hyperlink ref="H54" r:id="rId27"/>
-    <hyperlink ref="H53" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$70</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="113">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文本编辑工具 Notepad++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卸载工具 Your Uninstaller! 7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://notepad-plus-plus.org/downloads/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.wisecleaner.com.cn/download.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,6 +445,30 @@
   </si>
   <si>
     <t>https://potplayer.daum.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本编辑工具 Sublime Text 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本编辑工具 Sublime Text 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sublimetext.com/download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sublimetext.com/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯子工具 Clash for Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本比较工具 Beyond Compare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +638,28 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -959,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -976,13 +1013,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -994,22 +1031,22 @@
         <v>0</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
@@ -1023,7 +1060,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>4</v>
@@ -1043,7 +1080,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
@@ -1056,12 +1093,12 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>4</v>
@@ -1112,12 +1149,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>4</v>
@@ -1152,12 +1189,12 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>4</v>
@@ -1192,30 +1229,30 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="27" t="s">
@@ -1227,13 +1264,13 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>4</v>
@@ -1246,12 +1283,12 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>4</v>
@@ -1284,7 +1321,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1309,7 +1346,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -1324,7 +1361,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1349,7 +1386,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
@@ -1362,7 +1399,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1385,7 +1422,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
@@ -1398,12 +1435,12 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -1418,12 +1455,12 @@
         <v>4</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>4</v>
@@ -1443,7 +1480,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>4</v>
@@ -1461,7 +1498,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
@@ -1474,12 +1511,12 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>4</v>
@@ -1495,13 +1532,13 @@
         <v>4</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
@@ -1519,7 +1556,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>4</v>
@@ -1535,7 +1572,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
@@ -1548,12 +1585,12 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>4</v>
@@ -1571,7 +1608,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>4</v>
@@ -1582,14 +1619,14 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>4</v>
@@ -1604,30 +1641,30 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
@@ -1640,12 +1677,12 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>4</v>
@@ -1660,12 +1697,12 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>4</v>
@@ -1685,7 +1722,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -1703,7 +1740,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -1716,12 +1753,12 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
@@ -1734,12 +1771,12 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>4</v>
@@ -1755,13 +1792,13 @@
         <v>4</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>4</v>
@@ -1777,13 +1814,13 @@
         <v>4</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>4</v>
@@ -1799,7 +1836,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>4</v>
@@ -1818,84 +1855,84 @@
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H45" s="4"/>
+      <c r="A45" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="19" t="s">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="17" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>4</v>
@@ -1911,51 +1948,47 @@
         <v>4</v>
       </c>
       <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="16"/>
+      <c r="H50" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="16"/>
+      <c r="H51" s="16" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>4</v>
@@ -1971,11 +2004,11 @@
         <v>4</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="16"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>4</v>
@@ -1995,7 +2028,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>4</v>
@@ -2003,19 +2036,19 @@
       <c r="C54" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>4</v>
@@ -2035,7 +2068,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>4</v>
@@ -2051,11 +2084,11 @@
         <v>4</v>
       </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>4</v>
@@ -2063,24 +2096,26 @@
       <c r="C57" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
+      <c r="H57" s="16" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
         <v>4</v>
@@ -2089,103 +2124,103 @@
         <v>4</v>
       </c>
       <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
+      <c r="C59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G59" s="9"/>
-      <c r="H59" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="16"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G61" s="9"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="19" t="s">
-        <v>74</v>
+      <c r="A62" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="19" t="s">
-        <v>108</v>
-      </c>
+      <c r="A63" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>4</v>
@@ -2197,95 +2232,153 @@
       <c r="E64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="16" t="s">
+      <c r="A65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H67" s="12"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H70" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H67">
-    <sortState ref="A2:H67">
-      <sortCondition ref="A1:A67"/>
+  <autoFilter ref="A1:H70">
+    <sortState ref="A2:H70">
+      <sortCondition ref="A1:A70"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A58:A1048576 A52:A55 A1:A50">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
+  <conditionalFormatting sqref="A61:A1048576 A55:A58 A1:A53">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A56)))</formula>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A57)))</formula>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A51)))</formula>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2302,23 +2395,24 @@
     <hyperlink ref="H36" r:id="rId11"/>
     <hyperlink ref="H39" r:id="rId12"/>
     <hyperlink ref="H40" r:id="rId13"/>
-    <hyperlink ref="H48" r:id="rId14"/>
-    <hyperlink ref="H65" r:id="rId15"/>
-    <hyperlink ref="H46" r:id="rId16" location="/download"/>
-    <hyperlink ref="H66" r:id="rId17"/>
-    <hyperlink ref="H47" r:id="rId18"/>
-    <hyperlink ref="H63" r:id="rId19"/>
-    <hyperlink ref="H26" r:id="rId20"/>
-    <hyperlink ref="H12" r:id="rId21"/>
-    <hyperlink ref="H62" r:id="rId22" location="Windows"/>
-    <hyperlink ref="H34" r:id="rId23"/>
-    <hyperlink ref="H30" r:id="rId24"/>
-    <hyperlink ref="H59" r:id="rId25"/>
-    <hyperlink ref="H18" r:id="rId26"/>
-    <hyperlink ref="H54" r:id="rId27"/>
+    <hyperlink ref="H68" r:id="rId14"/>
+    <hyperlink ref="H47" r:id="rId15" location="/download"/>
+    <hyperlink ref="H69" r:id="rId16"/>
+    <hyperlink ref="H48" r:id="rId17"/>
+    <hyperlink ref="H66" r:id="rId18"/>
+    <hyperlink ref="H26" r:id="rId19"/>
+    <hyperlink ref="H12" r:id="rId20"/>
+    <hyperlink ref="H65" r:id="rId21" location="Windows"/>
+    <hyperlink ref="H34" r:id="rId22"/>
+    <hyperlink ref="H30" r:id="rId23"/>
+    <hyperlink ref="H62" r:id="rId24"/>
+    <hyperlink ref="H18" r:id="rId25"/>
+    <hyperlink ref="H57" r:id="rId26"/>
+    <hyperlink ref="H51" r:id="rId27"/>
+    <hyperlink ref="H50" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$69</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="111">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,27 +448,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文本编辑工具 Sublime Text 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本编辑工具 Sublime Text 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sublimetext.com/download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sublimetext.com/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>梯子工具 Clash for Windows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文本比较工具 Beyond Compare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本编辑工具 Notepad++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://notepad-plus-plus.org/downloads/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,28 +630,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -710,7 +681,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -752,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,7 +758,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -996,22 +967,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1038,7 +1009,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1058,7 +1029,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
@@ -1078,7 +1049,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
@@ -1096,7 +1067,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>82</v>
       </c>
@@ -1114,7 +1085,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1103,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>100</v>
       </c>
@@ -1172,7 +1143,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1192,7 +1163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1212,7 +1183,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
@@ -1232,7 +1203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>66</v>
       </c>
@@ -1250,7 +1221,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>44</v>
       </c>
@@ -1268,7 +1239,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>43</v>
       </c>
@@ -1286,7 +1257,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>101</v>
       </c>
@@ -1304,7 +1275,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>13</v>
       </c>
@@ -1324,7 +1295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1315,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -1364,7 +1335,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1355,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1402,7 +1373,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>12</v>
       </c>
@@ -1420,7 +1391,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>36</v>
       </c>
@@ -1438,7 +1409,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -1458,7 +1429,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1449,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1467,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>65</v>
       </c>
@@ -1514,7 +1485,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
@@ -1536,7 +1507,7 @@
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>76</v>
       </c>
@@ -1554,7 +1525,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>32</v>
       </c>
@@ -1570,7 +1541,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>92</v>
       </c>
@@ -1588,7 +1559,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -1606,7 +1577,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>83</v>
       </c>
@@ -1624,7 +1595,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
@@ -1644,7 +1615,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>88</v>
       </c>
@@ -1662,7 +1633,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
@@ -1680,7 +1651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>16</v>
       </c>
@@ -1700,7 +1671,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>41</v>
       </c>
@@ -1720,7 +1691,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -1738,7 +1709,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +1727,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -1774,7 +1745,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>28</v>
       </c>
@@ -1796,7 +1767,7 @@
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>29</v>
       </c>
@@ -1818,7 +1789,7 @@
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>25</v>
       </c>
@@ -1834,9 +1805,9 @@
       <c r="G43" s="9"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>4</v>
@@ -1854,7 +1825,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>75</v>
       </c>
@@ -1874,7 +1845,7 @@
       <c r="G45" s="9"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -1892,7 +1863,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>31</v>
       </c>
@@ -1910,7 +1881,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>11</v>
       </c>
@@ -1930,9 +1901,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>4</v>
@@ -1950,11 +1921,13 @@
       <c r="G49" s="9"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="9"/>
+        <v>109</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="C50" s="9" t="s">
         <v>4</v>
       </c>
@@ -1968,27 +1941,29 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="C51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G51" s="9"/>
-      <c r="H51" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>4</v>
@@ -2004,11 +1979,11 @@
         <v>4</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>4</v>
@@ -2026,9 +2001,9 @@
       <c r="G53" s="9"/>
       <c r="H53" s="16"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>4</v>
@@ -2046,9 +2021,9 @@
       <c r="G54" s="9"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>4</v>
@@ -2066,9 +2041,9 @@
       <c r="G55" s="9"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>4</v>
@@ -2076,19 +2051,19 @@
       <c r="C56" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="16"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H56" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>4</v>
@@ -2096,19 +2071,19 @@
       <c r="C57" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G57" s="9"/>
-      <c r="H57" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>4</v>
@@ -2124,11 +2099,11 @@
         <v>4</v>
       </c>
       <c r="G58" s="9"/>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>4</v>
@@ -2146,16 +2121,14 @@
       <c r="G59" s="9"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
         <v>4</v>
@@ -2166,219 +2139,201 @@
       <c r="G60" s="9"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D61" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H61" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="16"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H70" s="12"/>
+      <c r="H69" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H70">
-    <sortState ref="A2:H70">
-      <sortCondition ref="A1:A70"/>
+  <autoFilter ref="A1:H69">
+    <sortState ref="A2:H69">
+      <sortCondition ref="A1:A69"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A61:A1048576 A55:A58 A1:A53">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="浏览器">
+  <conditionalFormatting sqref="A60:A1048576 A54:A57 A1:A52">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="浏览器">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A54)))</formula>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2395,24 +2350,23 @@
     <hyperlink ref="H36" r:id="rId11"/>
     <hyperlink ref="H39" r:id="rId12"/>
     <hyperlink ref="H40" r:id="rId13"/>
-    <hyperlink ref="H68" r:id="rId14"/>
+    <hyperlink ref="H67" r:id="rId14"/>
     <hyperlink ref="H47" r:id="rId15" location="/download"/>
-    <hyperlink ref="H69" r:id="rId16"/>
+    <hyperlink ref="H68" r:id="rId16"/>
     <hyperlink ref="H48" r:id="rId17"/>
-    <hyperlink ref="H66" r:id="rId18"/>
+    <hyperlink ref="H65" r:id="rId18"/>
     <hyperlink ref="H26" r:id="rId19"/>
     <hyperlink ref="H12" r:id="rId20"/>
-    <hyperlink ref="H65" r:id="rId21" location="Windows"/>
+    <hyperlink ref="H64" r:id="rId21" location="Windows"/>
     <hyperlink ref="H34" r:id="rId22"/>
     <hyperlink ref="H30" r:id="rId23"/>
-    <hyperlink ref="H62" r:id="rId24"/>
+    <hyperlink ref="H61" r:id="rId24"/>
     <hyperlink ref="H18" r:id="rId25"/>
-    <hyperlink ref="H57" r:id="rId26"/>
-    <hyperlink ref="H51" r:id="rId27"/>
-    <hyperlink ref="H50" r:id="rId28"/>
+    <hyperlink ref="H56" r:id="rId26"/>
+    <hyperlink ref="H50" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -2422,7 +2376,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2435,7 +2389,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$68</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="109">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钉钉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抓包工具 Fiddler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,10 +385,6 @@
   </si>
   <si>
     <t>卡饭输入法（备选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pc.qq.com/detail/0/detail_26980.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -681,7 +673,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -723,7 +715,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,7 +750,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,30 +959,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1002,14 +994,14 @@
         <v>0</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1017,7 +1009,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
@@ -1029,7 +1021,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
@@ -1049,9 +1041,9 @@
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
@@ -1064,12 +1056,12 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>4</v>
@@ -1085,7 +1077,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1095,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1120,12 +1112,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>4</v>
@@ -1143,7 +1135,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1160,10 +1152,10 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1183,7 +1175,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
@@ -1200,30 +1192,30 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="27" t="s">
@@ -1235,13 +1227,13 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>4</v>
@@ -1254,12 +1246,12 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>4</v>
@@ -1275,7 +1267,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
         <v>13</v>
       </c>
@@ -1292,10 +1284,10 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1315,9 +1307,9 @@
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -1332,10 +1324,10 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -1355,9 +1347,9 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
@@ -1370,10 +1362,10 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>12</v>
       </c>
@@ -1391,9 +1383,9 @@
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
@@ -1406,32 +1398,32 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>4</v>
@@ -1443,201 +1435,201 @@
       <c r="E24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="20" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="C35" s="9" t="s">
         <v>4</v>
       </c>
@@ -1648,12 +1640,12 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>4</v>
@@ -1661,91 +1653,93 @@
       <c r="C36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="22" t="s">
+      <c r="H38" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>28</v>
       </c>
@@ -1763,51 +1757,49 @@
         <v>4</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G43" s="9"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>4</v>
@@ -1825,105 +1817,105 @@
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>4</v>
@@ -1931,19 +1923,19 @@
       <c r="C50" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G50" s="9"/>
-      <c r="H50" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>4</v>
@@ -1959,11 +1951,11 @@
         <v>4</v>
       </c>
       <c r="G51" s="9"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>4</v>
@@ -1981,9 +1973,9 @@
       <c r="G52" s="9"/>
       <c r="H52" s="16"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>4</v>
@@ -2001,9 +1993,9 @@
       <c r="G53" s="9"/>
       <c r="H53" s="16"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>4</v>
@@ -2021,9 +2013,9 @@
       <c r="G54" s="9"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>4</v>
@@ -2031,19 +2023,19 @@
       <c r="C55" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>4</v>
@@ -2051,19 +2043,19 @@
       <c r="C56" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>4</v>
@@ -2079,11 +2071,11 @@
         <v>4</v>
       </c>
       <c r="G57" s="9"/>
-      <c r="H57" s="16"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>4</v>
@@ -2101,16 +2093,14 @@
       <c r="G58" s="9"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
         <v>4</v>
@@ -2121,219 +2111,201 @@
       <c r="G59" s="9"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="16"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>67</v>
+        <v>9</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="D64" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
       <c r="H64" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H69" s="12"/>
+      <c r="H66" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H69">
-    <sortState ref="A2:H69">
-      <sortCondition ref="A1:A69"/>
+  <autoFilter ref="A1:H68">
+    <sortState ref="A2:H68">
+      <sortCondition ref="A1:A68"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A60:A1048576 A54:A57 A1:A52">
+  <conditionalFormatting sqref="A59:A1048576 A53:A56 A1:A51">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A52">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2344,29 +2316,28 @@
     <hyperlink ref="H14" r:id="rId5" location="java8-windows"/>
     <hyperlink ref="H20" r:id="rId6"/>
     <hyperlink ref="H22" r:id="rId7"/>
-    <hyperlink ref="H35" r:id="rId8"/>
-    <hyperlink ref="H23" r:id="rId9"/>
-    <hyperlink ref="H33" r:id="rId10"/>
-    <hyperlink ref="H36" r:id="rId11"/>
+    <hyperlink ref="H34" r:id="rId8"/>
+    <hyperlink ref="H32" r:id="rId9"/>
+    <hyperlink ref="H35" r:id="rId10"/>
+    <hyperlink ref="H38" r:id="rId11"/>
     <hyperlink ref="H39" r:id="rId12"/>
-    <hyperlink ref="H40" r:id="rId13"/>
-    <hyperlink ref="H67" r:id="rId14"/>
-    <hyperlink ref="H47" r:id="rId15" location="/download"/>
-    <hyperlink ref="H68" r:id="rId16"/>
-    <hyperlink ref="H48" r:id="rId17"/>
-    <hyperlink ref="H65" r:id="rId18"/>
-    <hyperlink ref="H26" r:id="rId19"/>
-    <hyperlink ref="H12" r:id="rId20"/>
-    <hyperlink ref="H64" r:id="rId21" location="Windows"/>
-    <hyperlink ref="H34" r:id="rId22"/>
-    <hyperlink ref="H30" r:id="rId23"/>
-    <hyperlink ref="H61" r:id="rId24"/>
-    <hyperlink ref="H18" r:id="rId25"/>
-    <hyperlink ref="H56" r:id="rId26"/>
-    <hyperlink ref="H50" r:id="rId27"/>
+    <hyperlink ref="H66" r:id="rId13"/>
+    <hyperlink ref="H46" r:id="rId14" location="/download"/>
+    <hyperlink ref="H67" r:id="rId15"/>
+    <hyperlink ref="H47" r:id="rId16"/>
+    <hyperlink ref="H64" r:id="rId17"/>
+    <hyperlink ref="H25" r:id="rId18"/>
+    <hyperlink ref="H12" r:id="rId19"/>
+    <hyperlink ref="H63" r:id="rId20" location="Windows"/>
+    <hyperlink ref="H33" r:id="rId21"/>
+    <hyperlink ref="H29" r:id="rId22"/>
+    <hyperlink ref="H60" r:id="rId23"/>
+    <hyperlink ref="H18" r:id="rId24"/>
+    <hyperlink ref="H55" r:id="rId25"/>
+    <hyperlink ref="H49" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -2376,7 +2347,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2389,7 +2360,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="110">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,10 @@
   </si>
   <si>
     <t>https://notepad-plus-plus.org/downloads/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Fndroid/clash_for_windows_pkg/releases</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1787,15 +1791,15 @@
       <c r="C43" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
+      <c r="H43" s="16" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
@@ -2335,9 +2339,10 @@
     <hyperlink ref="H18" r:id="rId24"/>
     <hyperlink ref="H55" r:id="rId25"/>
     <hyperlink ref="H49" r:id="rId26"/>
+    <hyperlink ref="H43" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/一体机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$69</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="113">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联想一体机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华硕笔记本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://wiki.acestream.media/Download#Windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,10 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影音播放器 Ace Stream Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Telegram Desktop 桌面PC版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,6 +445,30 @@
   </si>
   <si>
     <t>https://github.com/Fndroid/clash_for_windows_pkg/releases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台式机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega网盘 32位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega网盘 64位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mega.nz/MEGAsyncSetup32.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mega.nz/MEGAsyncSetup64.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +638,14 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -963,19 +982,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -983,10 +1003,10 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -998,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -1013,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
@@ -1060,12 +1080,12 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>4</v>
@@ -1116,12 +1136,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>4</v>
@@ -1156,7 +1176,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1196,25 +1216,25 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1231,7 +1251,7 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="26"/>
     </row>
@@ -1250,12 +1270,12 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>4</v>
@@ -1272,106 +1292,104 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="B18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="22" t="s">
-        <v>52</v>
+      <c r="A20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>4</v>
@@ -1379,35 +1397,37 @@
       <c r="C21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="16" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="16" t="s">
-        <v>53</v>
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>4</v>
@@ -1419,507 +1439,503 @@
       <c r="E23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="20" t="s">
+      <c r="A25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
+      <c r="B28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="16" t="s">
-        <v>76</v>
-      </c>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
+      <c r="B32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="16" t="s">
+      <c r="B34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="16" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="22" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
+      <c r="B42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="B43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="B48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="16" t="s">
-        <v>108</v>
+      <c r="B49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>4</v>
@@ -1935,11 +1951,11 @@
         <v>4</v>
       </c>
       <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>4</v>
@@ -1947,19 +1963,19 @@
       <c r="C51" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="16"/>
+      <c r="H51" s="16" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>4</v>
@@ -1975,11 +1991,11 @@
         <v>4</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="16"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>4</v>
@@ -1999,7 +2015,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>4</v>
@@ -2019,7 +2035,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>4</v>
@@ -2027,19 +2043,19 @@
       <c r="C55" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="16" t="s">
-        <v>103</v>
-      </c>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>4</v>
@@ -2059,7 +2075,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>4</v>
@@ -2067,19 +2083,19 @@
       <c r="C57" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
+      <c r="H57" s="16" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>4</v>
@@ -2095,16 +2111,18 @@
         <v>4</v>
       </c>
       <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
         <v>4</v>
@@ -2117,199 +2135,217 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
+      <c r="C60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="16" t="s">
-        <v>79</v>
-      </c>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G61" s="9"/>
-      <c r="H61" s="16"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
+      <c r="H62" s="16" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="A63" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="19" t="s">
-        <v>71</v>
-      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
+      <c r="B65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="19" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="13" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="11" t="s">
+      <c r="B68" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H68" s="12"/>
+      <c r="B69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H69" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H68">
-    <sortState ref="A2:H68">
-      <sortCondition ref="A1:A68"/>
+  <autoFilter ref="A1:H69">
+    <sortState ref="A2:H69">
+      <sortCondition ref="A1:A69"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A59:A1048576 A53:A56 A1:A51">
+  <conditionalFormatting sqref="A55:A58 A1:A53 A61:A1048576">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
+  <conditionalFormatting sqref="A59">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
+  <conditionalFormatting sqref="A60">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
+  <conditionalFormatting sqref="A54">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2318,31 +2354,33 @@
     <hyperlink ref="H9" r:id="rId3" location="product-desktop-release"/>
     <hyperlink ref="H11" r:id="rId4"/>
     <hyperlink ref="H14" r:id="rId5" location="java8-windows"/>
-    <hyperlink ref="H20" r:id="rId6"/>
-    <hyperlink ref="H22" r:id="rId7"/>
-    <hyperlink ref="H34" r:id="rId8"/>
-    <hyperlink ref="H32" r:id="rId9"/>
-    <hyperlink ref="H35" r:id="rId10"/>
-    <hyperlink ref="H38" r:id="rId11"/>
-    <hyperlink ref="H39" r:id="rId12"/>
-    <hyperlink ref="H66" r:id="rId13"/>
-    <hyperlink ref="H46" r:id="rId14" location="/download"/>
-    <hyperlink ref="H67" r:id="rId15"/>
-    <hyperlink ref="H47" r:id="rId16"/>
-    <hyperlink ref="H64" r:id="rId17"/>
-    <hyperlink ref="H25" r:id="rId18"/>
+    <hyperlink ref="H22" r:id="rId6"/>
+    <hyperlink ref="H24" r:id="rId7"/>
+    <hyperlink ref="H36" r:id="rId8"/>
+    <hyperlink ref="H34" r:id="rId9"/>
+    <hyperlink ref="H37" r:id="rId10"/>
+    <hyperlink ref="H40" r:id="rId11"/>
+    <hyperlink ref="H41" r:id="rId12"/>
+    <hyperlink ref="H67" r:id="rId13"/>
+    <hyperlink ref="H48" r:id="rId14" location="/download"/>
+    <hyperlink ref="H68" r:id="rId15"/>
+    <hyperlink ref="H49" r:id="rId16"/>
+    <hyperlink ref="H65" r:id="rId17"/>
+    <hyperlink ref="H27" r:id="rId18"/>
     <hyperlink ref="H12" r:id="rId19"/>
-    <hyperlink ref="H63" r:id="rId20" location="Windows"/>
-    <hyperlink ref="H33" r:id="rId21"/>
-    <hyperlink ref="H29" r:id="rId22"/>
-    <hyperlink ref="H60" r:id="rId23"/>
-    <hyperlink ref="H18" r:id="rId24"/>
-    <hyperlink ref="H55" r:id="rId25"/>
-    <hyperlink ref="H49" r:id="rId26"/>
-    <hyperlink ref="H43" r:id="rId27"/>
+    <hyperlink ref="H35" r:id="rId20"/>
+    <hyperlink ref="H31" r:id="rId21"/>
+    <hyperlink ref="H62" r:id="rId22"/>
+    <hyperlink ref="H20" r:id="rId23"/>
+    <hyperlink ref="H57" r:id="rId24"/>
+    <hyperlink ref="H51" r:id="rId25"/>
+    <hyperlink ref="H45" r:id="rId26"/>
+    <hyperlink ref="H21" r:id="rId27"/>
+    <hyperlink ref="H16" r:id="rId28"/>
+    <hyperlink ref="H17" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
